--- a/data/municipal_elections/raw/nrw/nrw_kreisfreie_staedte.xlsx
+++ b/data/municipal_elections/raw/nrw/nrw_kreisfreie_staedte.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flosic/Documents/GitHub/german_election_data/data/municipal_elections/raw/nrw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9CCA37-9315-7F4E-8500-C844CD64F356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A8AD1B-CEC8-E74A-9B0E-DD9C8D4179C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="22940" windowHeight="14320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="22940" windowHeight="13520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="14411-01d" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7663" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7662" uniqueCount="225">
   <si>
     <t>Kreistagswahlen: Wahlberechtigte, Wähler, gültige Stimmen
 und gewählte Vertreter nach Parteien (9)
@@ -810,21 +810,21 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1162,11 +1162,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y634"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="D625" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="6" topLeftCell="D193" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H628" sqref="H628"/>
+      <selection pane="bottomRight" activeCell="C200" sqref="C200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.796875" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -1182,60 +1182,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
     </row>
     <row r="2" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
     </row>
     <row r="3" spans="2:25" s="6" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="8" t="s">
@@ -1440,32 +1440,32 @@
       </c>
     </row>
     <row r="7" spans="2:25" ht="33.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
     </row>
     <row r="8" spans="2:25" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
@@ -5982,32 +5982,32 @@
       </c>
     </row>
     <row r="69" spans="2:25" ht="33.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="13" t="s">
+      <c r="B69" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="C69" s="11"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="12"/>
-      <c r="G69" s="12"/>
-      <c r="H69" s="12"/>
-      <c r="I69" s="11"/>
-      <c r="J69" s="11"/>
-      <c r="K69" s="12"/>
-      <c r="L69" s="11"/>
-      <c r="M69" s="11"/>
-      <c r="N69" s="11"/>
-      <c r="O69" s="11"/>
-      <c r="P69" s="11"/>
-      <c r="Q69" s="11"/>
-      <c r="R69" s="11"/>
-      <c r="S69" s="11"/>
-      <c r="T69" s="11"/>
-      <c r="U69" s="11"/>
-      <c r="V69" s="11"/>
-      <c r="W69" s="11"/>
-      <c r="X69" s="11"/>
-      <c r="Y69" s="11"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="13"/>
+      <c r="J69" s="13"/>
+      <c r="K69" s="14"/>
+      <c r="L69" s="13"/>
+      <c r="M69" s="13"/>
+      <c r="N69" s="13"/>
+      <c r="O69" s="13"/>
+      <c r="P69" s="13"/>
+      <c r="Q69" s="13"/>
+      <c r="R69" s="13"/>
+      <c r="S69" s="13"/>
+      <c r="T69" s="13"/>
+      <c r="U69" s="13"/>
+      <c r="V69" s="13"/>
+      <c r="W69" s="13"/>
+      <c r="X69" s="13"/>
+      <c r="Y69" s="13"/>
     </row>
     <row r="70" spans="2:25" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="B70" s="2" t="s">
@@ -10524,32 +10524,32 @@
       </c>
     </row>
     <row r="131" spans="2:25" ht="33.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B131" s="13" t="s">
+      <c r="B131" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="C131" s="11"/>
-      <c r="D131" s="12"/>
-      <c r="E131" s="12"/>
-      <c r="F131" s="12"/>
-      <c r="G131" s="12"/>
-      <c r="H131" s="12"/>
-      <c r="I131" s="11"/>
-      <c r="J131" s="11"/>
-      <c r="K131" s="12"/>
-      <c r="L131" s="11"/>
-      <c r="M131" s="11"/>
-      <c r="N131" s="11"/>
-      <c r="O131" s="11"/>
-      <c r="P131" s="11"/>
-      <c r="Q131" s="11"/>
-      <c r="R131" s="11"/>
-      <c r="S131" s="11"/>
-      <c r="T131" s="11"/>
-      <c r="U131" s="11"/>
-      <c r="V131" s="11"/>
-      <c r="W131" s="11"/>
-      <c r="X131" s="11"/>
-      <c r="Y131" s="11"/>
+      <c r="C131" s="13"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="14"/>
+      <c r="F131" s="14"/>
+      <c r="G131" s="14"/>
+      <c r="H131" s="14"/>
+      <c r="I131" s="13"/>
+      <c r="J131" s="13"/>
+      <c r="K131" s="14"/>
+      <c r="L131" s="13"/>
+      <c r="M131" s="13"/>
+      <c r="N131" s="13"/>
+      <c r="O131" s="13"/>
+      <c r="P131" s="13"/>
+      <c r="Q131" s="13"/>
+      <c r="R131" s="13"/>
+      <c r="S131" s="13"/>
+      <c r="T131" s="13"/>
+      <c r="U131" s="13"/>
+      <c r="V131" s="13"/>
+      <c r="W131" s="13"/>
+      <c r="X131" s="13"/>
+      <c r="Y131" s="13"/>
     </row>
     <row r="132" spans="2:25" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="B132" s="2" t="s">
@@ -15066,32 +15066,32 @@
       </c>
     </row>
     <row r="193" spans="2:25" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B193" s="13" t="s">
+      <c r="B193" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="C193" s="11"/>
-      <c r="D193" s="12"/>
-      <c r="E193" s="12"/>
-      <c r="F193" s="12"/>
-      <c r="G193" s="12"/>
-      <c r="H193" s="12"/>
-      <c r="I193" s="11"/>
-      <c r="J193" s="11"/>
-      <c r="K193" s="12"/>
-      <c r="L193" s="11"/>
-      <c r="M193" s="11"/>
-      <c r="N193" s="11"/>
-      <c r="O193" s="11"/>
-      <c r="P193" s="11"/>
-      <c r="Q193" s="11"/>
-      <c r="R193" s="11"/>
-      <c r="S193" s="11"/>
-      <c r="T193" s="11"/>
-      <c r="U193" s="11"/>
-      <c r="V193" s="11"/>
-      <c r="W193" s="11"/>
-      <c r="X193" s="11"/>
-      <c r="Y193" s="11"/>
+      <c r="C193" s="13"/>
+      <c r="D193" s="14"/>
+      <c r="E193" s="14"/>
+      <c r="F193" s="14"/>
+      <c r="G193" s="14"/>
+      <c r="H193" s="14"/>
+      <c r="I193" s="13"/>
+      <c r="J193" s="13"/>
+      <c r="K193" s="14"/>
+      <c r="L193" s="13"/>
+      <c r="M193" s="13"/>
+      <c r="N193" s="13"/>
+      <c r="O193" s="13"/>
+      <c r="P193" s="13"/>
+      <c r="Q193" s="13"/>
+      <c r="R193" s="13"/>
+      <c r="S193" s="13"/>
+      <c r="T193" s="13"/>
+      <c r="U193" s="13"/>
+      <c r="V193" s="13"/>
+      <c r="W193" s="13"/>
+      <c r="X193" s="13"/>
+      <c r="Y193" s="13"/>
     </row>
     <row r="194" spans="2:25" ht="13" x14ac:dyDescent="0.15">
       <c r="B194" s="2" t="s">
@@ -19608,32 +19608,32 @@
       </c>
     </row>
     <row r="255" spans="2:25" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B255" s="13" t="s">
+      <c r="B255" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="C255" s="11"/>
-      <c r="D255" s="12"/>
-      <c r="E255" s="12"/>
-      <c r="F255" s="12"/>
-      <c r="G255" s="12"/>
-      <c r="H255" s="12"/>
-      <c r="I255" s="11"/>
-      <c r="J255" s="11"/>
-      <c r="K255" s="12"/>
-      <c r="L255" s="11"/>
-      <c r="M255" s="11"/>
-      <c r="N255" s="11"/>
-      <c r="O255" s="11"/>
-      <c r="P255" s="11"/>
-      <c r="Q255" s="11"/>
-      <c r="R255" s="11"/>
-      <c r="S255" s="11"/>
-      <c r="T255" s="11"/>
-      <c r="U255" s="11"/>
-      <c r="V255" s="11"/>
-      <c r="W255" s="11"/>
-      <c r="X255" s="11"/>
-      <c r="Y255" s="11"/>
+      <c r="C255" s="13"/>
+      <c r="D255" s="14"/>
+      <c r="E255" s="14"/>
+      <c r="F255" s="14"/>
+      <c r="G255" s="14"/>
+      <c r="H255" s="14"/>
+      <c r="I255" s="13"/>
+      <c r="J255" s="13"/>
+      <c r="K255" s="14"/>
+      <c r="L255" s="13"/>
+      <c r="M255" s="13"/>
+      <c r="N255" s="13"/>
+      <c r="O255" s="13"/>
+      <c r="P255" s="13"/>
+      <c r="Q255" s="13"/>
+      <c r="R255" s="13"/>
+      <c r="S255" s="13"/>
+      <c r="T255" s="13"/>
+      <c r="U255" s="13"/>
+      <c r="V255" s="13"/>
+      <c r="W255" s="13"/>
+      <c r="X255" s="13"/>
+      <c r="Y255" s="13"/>
     </row>
     <row r="256" spans="2:25" ht="13" x14ac:dyDescent="0.15">
       <c r="B256" s="2" t="s">
@@ -24150,32 +24150,32 @@
       </c>
     </row>
     <row r="317" spans="2:25" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B317" s="13" t="s">
+      <c r="B317" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="C317" s="11"/>
-      <c r="D317" s="12"/>
-      <c r="E317" s="12"/>
-      <c r="F317" s="12"/>
-      <c r="G317" s="12"/>
-      <c r="H317" s="12"/>
-      <c r="I317" s="11"/>
-      <c r="J317" s="11"/>
-      <c r="K317" s="12"/>
-      <c r="L317" s="11"/>
-      <c r="M317" s="11"/>
-      <c r="N317" s="11"/>
-      <c r="O317" s="11"/>
-      <c r="P317" s="11"/>
-      <c r="Q317" s="11"/>
-      <c r="R317" s="11"/>
-      <c r="S317" s="11"/>
-      <c r="T317" s="11"/>
-      <c r="U317" s="11"/>
-      <c r="V317" s="11"/>
-      <c r="W317" s="11"/>
-      <c r="X317" s="11"/>
-      <c r="Y317" s="11"/>
+      <c r="C317" s="13"/>
+      <c r="D317" s="14"/>
+      <c r="E317" s="14"/>
+      <c r="F317" s="14"/>
+      <c r="G317" s="14"/>
+      <c r="H317" s="14"/>
+      <c r="I317" s="13"/>
+      <c r="J317" s="13"/>
+      <c r="K317" s="14"/>
+      <c r="L317" s="13"/>
+      <c r="M317" s="13"/>
+      <c r="N317" s="13"/>
+      <c r="O317" s="13"/>
+      <c r="P317" s="13"/>
+      <c r="Q317" s="13"/>
+      <c r="R317" s="13"/>
+      <c r="S317" s="13"/>
+      <c r="T317" s="13"/>
+      <c r="U317" s="13"/>
+      <c r="V317" s="13"/>
+      <c r="W317" s="13"/>
+      <c r="X317" s="13"/>
+      <c r="Y317" s="13"/>
     </row>
     <row r="318" spans="2:25" ht="13" x14ac:dyDescent="0.15">
       <c r="B318" s="2" t="s">
@@ -28692,32 +28692,32 @@
       </c>
     </row>
     <row r="379" spans="2:25" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B379" s="13" t="s">
+      <c r="B379" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="C379" s="11"/>
-      <c r="D379" s="12"/>
-      <c r="E379" s="12"/>
-      <c r="F379" s="12"/>
-      <c r="G379" s="12"/>
-      <c r="H379" s="12"/>
-      <c r="I379" s="11"/>
-      <c r="J379" s="11"/>
-      <c r="K379" s="12"/>
-      <c r="L379" s="11"/>
-      <c r="M379" s="11"/>
-      <c r="N379" s="11"/>
-      <c r="O379" s="11"/>
-      <c r="P379" s="11"/>
-      <c r="Q379" s="11"/>
-      <c r="R379" s="11"/>
-      <c r="S379" s="11"/>
-      <c r="T379" s="11"/>
-      <c r="U379" s="11"/>
-      <c r="V379" s="11"/>
-      <c r="W379" s="11"/>
-      <c r="X379" s="11"/>
-      <c r="Y379" s="11"/>
+      <c r="C379" s="13"/>
+      <c r="D379" s="14"/>
+      <c r="E379" s="14"/>
+      <c r="F379" s="14"/>
+      <c r="G379" s="14"/>
+      <c r="H379" s="14"/>
+      <c r="I379" s="13"/>
+      <c r="J379" s="13"/>
+      <c r="K379" s="14"/>
+      <c r="L379" s="13"/>
+      <c r="M379" s="13"/>
+      <c r="N379" s="13"/>
+      <c r="O379" s="13"/>
+      <c r="P379" s="13"/>
+      <c r="Q379" s="13"/>
+      <c r="R379" s="13"/>
+      <c r="S379" s="13"/>
+      <c r="T379" s="13"/>
+      <c r="U379" s="13"/>
+      <c r="V379" s="13"/>
+      <c r="W379" s="13"/>
+      <c r="X379" s="13"/>
+      <c r="Y379" s="13"/>
     </row>
     <row r="380" spans="2:25" ht="13" x14ac:dyDescent="0.15">
       <c r="B380" s="2" t="s">
@@ -33234,32 +33234,32 @@
       </c>
     </row>
     <row r="441" spans="2:25" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B441" s="13" t="s">
+      <c r="B441" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C441" s="11"/>
-      <c r="D441" s="12"/>
-      <c r="E441" s="12"/>
-      <c r="F441" s="12"/>
-      <c r="G441" s="12"/>
-      <c r="H441" s="12"/>
-      <c r="I441" s="11"/>
-      <c r="J441" s="11"/>
-      <c r="K441" s="12"/>
-      <c r="L441" s="11"/>
-      <c r="M441" s="11"/>
-      <c r="N441" s="11"/>
-      <c r="O441" s="11"/>
-      <c r="P441" s="11"/>
-      <c r="Q441" s="11"/>
-      <c r="R441" s="11"/>
-      <c r="S441" s="11"/>
-      <c r="T441" s="11"/>
-      <c r="U441" s="11"/>
-      <c r="V441" s="11"/>
-      <c r="W441" s="11"/>
-      <c r="X441" s="11"/>
-      <c r="Y441" s="11"/>
+      <c r="C441" s="13"/>
+      <c r="D441" s="14"/>
+      <c r="E441" s="14"/>
+      <c r="F441" s="14"/>
+      <c r="G441" s="14"/>
+      <c r="H441" s="14"/>
+      <c r="I441" s="13"/>
+      <c r="J441" s="13"/>
+      <c r="K441" s="14"/>
+      <c r="L441" s="13"/>
+      <c r="M441" s="13"/>
+      <c r="N441" s="13"/>
+      <c r="O441" s="13"/>
+      <c r="P441" s="13"/>
+      <c r="Q441" s="13"/>
+      <c r="R441" s="13"/>
+      <c r="S441" s="13"/>
+      <c r="T441" s="13"/>
+      <c r="U441" s="13"/>
+      <c r="V441" s="13"/>
+      <c r="W441" s="13"/>
+      <c r="X441" s="13"/>
+      <c r="Y441" s="13"/>
     </row>
     <row r="442" spans="2:25" ht="13" x14ac:dyDescent="0.15">
       <c r="B442" s="2" t="s">
@@ -37776,32 +37776,32 @@
       </c>
     </row>
     <row r="503" spans="2:25" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B503" s="13" t="s">
+      <c r="B503" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="C503" s="11"/>
-      <c r="D503" s="12"/>
-      <c r="E503" s="12"/>
-      <c r="F503" s="12"/>
-      <c r="G503" s="12"/>
-      <c r="H503" s="12"/>
-      <c r="I503" s="11"/>
-      <c r="J503" s="11"/>
-      <c r="K503" s="12"/>
-      <c r="L503" s="11"/>
-      <c r="M503" s="11"/>
-      <c r="N503" s="11"/>
-      <c r="O503" s="11"/>
-      <c r="P503" s="11"/>
-      <c r="Q503" s="11"/>
-      <c r="R503" s="11"/>
-      <c r="S503" s="11"/>
-      <c r="T503" s="11"/>
-      <c r="U503" s="11"/>
-      <c r="V503" s="11"/>
-      <c r="W503" s="11"/>
-      <c r="X503" s="11"/>
-      <c r="Y503" s="11"/>
+      <c r="C503" s="13"/>
+      <c r="D503" s="14"/>
+      <c r="E503" s="14"/>
+      <c r="F503" s="14"/>
+      <c r="G503" s="14"/>
+      <c r="H503" s="14"/>
+      <c r="I503" s="13"/>
+      <c r="J503" s="13"/>
+      <c r="K503" s="14"/>
+      <c r="L503" s="13"/>
+      <c r="M503" s="13"/>
+      <c r="N503" s="13"/>
+      <c r="O503" s="13"/>
+      <c r="P503" s="13"/>
+      <c r="Q503" s="13"/>
+      <c r="R503" s="13"/>
+      <c r="S503" s="13"/>
+      <c r="T503" s="13"/>
+      <c r="U503" s="13"/>
+      <c r="V503" s="13"/>
+      <c r="W503" s="13"/>
+      <c r="X503" s="13"/>
+      <c r="Y503" s="13"/>
     </row>
     <row r="504" spans="2:25" ht="13" x14ac:dyDescent="0.15">
       <c r="B504" s="2" t="s">
@@ -42318,32 +42318,32 @@
       </c>
     </row>
     <row r="565" spans="2:25" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B565" s="13" t="s">
+      <c r="B565" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="C565" s="11"/>
-      <c r="D565" s="12"/>
-      <c r="E565" s="12"/>
-      <c r="F565" s="12"/>
-      <c r="G565" s="12"/>
-      <c r="H565" s="12"/>
-      <c r="I565" s="11"/>
-      <c r="J565" s="11"/>
-      <c r="K565" s="12"/>
-      <c r="L565" s="11"/>
-      <c r="M565" s="11"/>
-      <c r="N565" s="11"/>
-      <c r="O565" s="11"/>
-      <c r="P565" s="11"/>
-      <c r="Q565" s="11"/>
-      <c r="R565" s="11"/>
-      <c r="S565" s="11"/>
-      <c r="T565" s="11"/>
-      <c r="U565" s="11"/>
-      <c r="V565" s="11"/>
-      <c r="W565" s="11"/>
-      <c r="X565" s="11"/>
-      <c r="Y565" s="11"/>
+      <c r="C565" s="13"/>
+      <c r="D565" s="14"/>
+      <c r="E565" s="14"/>
+      <c r="F565" s="14"/>
+      <c r="G565" s="14"/>
+      <c r="H565" s="14"/>
+      <c r="I565" s="13"/>
+      <c r="J565" s="13"/>
+      <c r="K565" s="14"/>
+      <c r="L565" s="13"/>
+      <c r="M565" s="13"/>
+      <c r="N565" s="13"/>
+      <c r="O565" s="13"/>
+      <c r="P565" s="13"/>
+      <c r="Q565" s="13"/>
+      <c r="R565" s="13"/>
+      <c r="S565" s="13"/>
+      <c r="T565" s="13"/>
+      <c r="U565" s="13"/>
+      <c r="V565" s="13"/>
+      <c r="W565" s="13"/>
+      <c r="X565" s="13"/>
+      <c r="Y565" s="13"/>
     </row>
     <row r="566" spans="2:25" ht="13" x14ac:dyDescent="0.15">
       <c r="B566" s="2" t="s">
@@ -46901,18 +46901,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B1:Y1"/>
+    <mergeCell ref="B317:Y317"/>
+    <mergeCell ref="B379:Y379"/>
+    <mergeCell ref="B441:Y441"/>
+    <mergeCell ref="B503:Y503"/>
+    <mergeCell ref="B2:Y2"/>
     <mergeCell ref="B565:Y565"/>
     <mergeCell ref="B7:Y7"/>
     <mergeCell ref="B69:Y69"/>
     <mergeCell ref="B131:Y131"/>
     <mergeCell ref="B193:Y193"/>
     <mergeCell ref="B255:Y255"/>
-    <mergeCell ref="B1:Y1"/>
-    <mergeCell ref="B317:Y317"/>
-    <mergeCell ref="B379:Y379"/>
-    <mergeCell ref="B441:Y441"/>
-    <mergeCell ref="B503:Y503"/>
-    <mergeCell ref="B2:Y2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -46926,8 +46926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C64B4438-0F77-004D-8559-D38F1367AA58}">
   <dimension ref="A1:Z421"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -46955,35 +46955,33 @@
         <v>5</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" s="7" t="s">
         <v>17</v>
       </c>
+      <c r="P1" s="7"/>
       <c r="Q1" s="7"/>
       <c r="R1" s="7"/>
       <c r="S1" s="7"/>
@@ -47005,47 +47003,47 @@
       <c r="C2" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="10">
         <v>194455</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="10">
         <v>102683</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="10">
         <v>101523</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15">
+      <c r="G2" s="11"/>
+      <c r="H2" s="11">
         <v>51304</v>
       </c>
-      <c r="I2" s="15">
+      <c r="I2" s="11">
         <v>27984</v>
       </c>
-      <c r="J2" s="15">
+      <c r="J2" s="11">
         <v>2344</v>
       </c>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15">
+      <c r="K2" s="11"/>
+      <c r="L2" s="11">
         <v>10324</v>
       </c>
-      <c r="M2" s="15">
+      <c r="M2" s="11">
         <v>4373</v>
       </c>
-      <c r="N2" s="15">
+      <c r="N2" s="11">
         <v>2539</v>
       </c>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -47057,49 +47055,49 @@
       <c r="C3" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="10">
         <v>192568</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="10">
         <v>102525</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="10">
         <v>101657</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15">
+      <c r="G3" s="11"/>
+      <c r="H3" s="11">
         <v>26397</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="11">
         <v>17753</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="11">
         <v>5259</v>
       </c>
-      <c r="K3" s="15">
+      <c r="K3" s="11">
         <v>3842</v>
       </c>
-      <c r="L3" s="15">
+      <c r="L3" s="11">
         <v>37346</v>
       </c>
-      <c r="M3" s="15">
+      <c r="M3" s="11">
         <v>5320</v>
       </c>
-      <c r="N3" s="15">
+      <c r="N3" s="11">
         <v>1522</v>
       </c>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="15"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
@@ -47141,9 +47139,7 @@
       <c r="O4" s="3">
         <v>199240</v>
       </c>
-      <c r="P4" s="3">
-        <v>3554</v>
-      </c>
+      <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
@@ -47194,9 +47190,7 @@
       <c r="O5" s="3">
         <v>45636</v>
       </c>
-      <c r="P5" s="3">
-        <v>1013</v>
-      </c>
+      <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
@@ -47247,9 +47241,7 @@
       <c r="O6" s="3">
         <v>2328</v>
       </c>
-      <c r="P6" s="3">
-        <v>83</v>
-      </c>
+      <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
@@ -47298,9 +47290,7 @@
       <c r="O7" s="3">
         <v>1169</v>
       </c>
-      <c r="P7" s="3">
-        <v>75</v>
-      </c>
+      <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
@@ -47349,9 +47339,7 @@
       <c r="O8" s="3">
         <v>6233</v>
       </c>
-      <c r="P8" s="3">
-        <v>83</v>
-      </c>
+      <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
@@ -47402,9 +47390,7 @@
       <c r="O9" s="3">
         <v>112</v>
       </c>
-      <c r="P9" s="3">
-        <v>59</v>
-      </c>
+      <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
@@ -47455,9 +47441,7 @@
       <c r="O10" s="3">
         <v>1576</v>
       </c>
-      <c r="P10" s="3">
-        <v>67</v>
-      </c>
+      <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
@@ -47508,9 +47492,7 @@
       <c r="O11" s="3">
         <v>844</v>
       </c>
-      <c r="P11" s="3">
-        <v>59</v>
-      </c>
+      <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
@@ -47557,9 +47539,7 @@
       <c r="O12" s="3">
         <v>7695</v>
       </c>
-      <c r="P12" s="3">
-        <v>59</v>
-      </c>
+      <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
@@ -47608,9 +47588,7 @@
       <c r="O13" s="3">
         <v>1390</v>
       </c>
-      <c r="P13" s="3">
-        <v>59</v>
-      </c>
+      <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
@@ -47659,9 +47637,7 @@
       <c r="O14" s="3">
         <v>2919</v>
       </c>
-      <c r="P14" s="3">
-        <v>59</v>
-      </c>
+      <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
@@ -47710,9 +47686,7 @@
       <c r="O15" s="3">
         <v>6520</v>
       </c>
-      <c r="P15" s="3">
-        <v>67</v>
-      </c>
+      <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -47763,9 +47737,7 @@
       <c r="O16" s="3">
         <v>1557</v>
       </c>
-      <c r="P16" s="3">
-        <v>63</v>
-      </c>
+      <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
@@ -47814,9 +47786,7 @@
       <c r="O17" s="3">
         <v>6250</v>
       </c>
-      <c r="P17" s="3">
-        <v>67</v>
-      </c>
+      <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
@@ -47867,9 +47837,7 @@
       <c r="O18" s="3">
         <v>2967</v>
       </c>
-      <c r="P18" s="3">
-        <v>69</v>
-      </c>
+      <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
@@ -47918,9 +47886,7 @@
       <c r="O19" s="3">
         <v>2030</v>
       </c>
-      <c r="P19" s="3">
-        <v>73</v>
-      </c>
+      <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
@@ -47971,9 +47937,7 @@
       <c r="O20" s="3">
         <v>2046</v>
       </c>
-      <c r="P20" s="3">
-        <v>71</v>
-      </c>
+      <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
@@ -48024,9 +47988,7 @@
       <c r="O21" s="3">
         <v>18534</v>
       </c>
-      <c r="P21" s="3">
-        <v>786</v>
-      </c>
+      <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
@@ -48075,9 +48037,7 @@
         <v>4997</v>
       </c>
       <c r="O22" s="3"/>
-      <c r="P22" s="3">
-        <v>59</v>
-      </c>
+      <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
@@ -48128,9 +48088,7 @@
       <c r="O23" s="3">
         <v>3556</v>
       </c>
-      <c r="P23" s="3">
-        <v>73</v>
-      </c>
+      <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
@@ -48181,9 +48139,7 @@
       <c r="O24" s="3">
         <v>5173</v>
       </c>
-      <c r="P24" s="3">
-        <v>95</v>
-      </c>
+      <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
@@ -48232,9 +48188,7 @@
         <v>4935</v>
       </c>
       <c r="O25" s="3"/>
-      <c r="P25" s="3">
-        <v>59</v>
-      </c>
+      <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
@@ -48283,9 +48237,7 @@
         <v>6703</v>
       </c>
       <c r="O26" s="3"/>
-      <c r="P26" s="3">
-        <v>55</v>
-      </c>
+      <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
@@ -48332,9 +48284,7 @@
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
-      <c r="P27" s="3">
-        <v>55</v>
-      </c>
+      <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
@@ -48383,9 +48333,7 @@
         <v>9480</v>
       </c>
       <c r="O28" s="3"/>
-      <c r="P28" s="3">
-        <v>77</v>
-      </c>
+      <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
@@ -48434,9 +48382,7 @@
       <c r="O29" s="3">
         <v>4511</v>
       </c>
-      <c r="P29" s="3">
-        <v>57</v>
-      </c>
+      <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
@@ -48485,9 +48431,7 @@
       <c r="O30" s="3">
         <v>45</v>
       </c>
-      <c r="P30" s="3">
-        <v>59</v>
-      </c>
+      <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
@@ -48538,9 +48482,7 @@
       <c r="O31" s="3">
         <v>3306</v>
       </c>
-      <c r="P31" s="3">
-        <v>55</v>
-      </c>
+      <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
@@ -48589,9 +48531,7 @@
       <c r="O32" s="3">
         <v>70</v>
       </c>
-      <c r="P32" s="3">
-        <v>63</v>
-      </c>
+      <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
@@ -48640,9 +48580,7 @@
       <c r="O33" s="3">
         <v>1873</v>
       </c>
-      <c r="P33" s="3">
-        <v>79</v>
-      </c>
+      <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
@@ -48693,9 +48631,7 @@
       <c r="O34" s="3">
         <v>43463</v>
       </c>
-      <c r="P34" s="3">
-        <v>520</v>
-      </c>
+      <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
@@ -48744,9 +48680,7 @@
       <c r="O35" s="3">
         <v>5509</v>
       </c>
-      <c r="P35" s="3">
-        <v>59</v>
-      </c>
+      <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
@@ -48797,9 +48731,7 @@
       <c r="O36" s="3">
         <v>1899</v>
       </c>
-      <c r="P36" s="3">
-        <v>67</v>
-      </c>
+      <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
@@ -48846,9 +48778,7 @@
       <c r="O37" s="3">
         <v>17629</v>
       </c>
-      <c r="P37" s="3">
-        <v>67</v>
-      </c>
+      <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
@@ -48897,9 +48827,7 @@
       <c r="O38" s="3">
         <v>11051</v>
       </c>
-      <c r="P38" s="3">
-        <v>67</v>
-      </c>
+      <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
@@ -48948,9 +48876,7 @@
       <c r="O39" s="3">
         <v>1356</v>
       </c>
-      <c r="P39" s="3">
-        <v>61</v>
-      </c>
+      <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
@@ -49001,9 +48927,7 @@
       <c r="O40" s="3">
         <v>2945</v>
       </c>
-      <c r="P40" s="3">
-        <v>83</v>
-      </c>
+      <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
@@ -49052,9 +48976,7 @@
       <c r="O41" s="3">
         <v>1783</v>
       </c>
-      <c r="P41" s="3">
-        <v>61</v>
-      </c>
+      <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
       <c r="R41" s="3"/>
       <c r="S41" s="3"/>
@@ -49103,9 +49025,7 @@
       <c r="O42" s="3">
         <v>1291</v>
       </c>
-      <c r="P42" s="3">
-        <v>55</v>
-      </c>
+      <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
       <c r="R42" s="3"/>
       <c r="S42" s="3"/>
@@ -49154,9 +49074,7 @@
       <c r="O43" s="3">
         <v>37137</v>
       </c>
-      <c r="P43" s="3">
-        <v>471</v>
-      </c>
+      <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
       <c r="R43" s="3"/>
       <c r="S43" s="3"/>
@@ -49205,9 +49123,7 @@
       <c r="O44" s="3">
         <v>15297</v>
       </c>
-      <c r="P44" s="3">
-        <v>67</v>
-      </c>
+      <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
       <c r="R44" s="3"/>
       <c r="S44" s="3"/>
@@ -49256,9 +49172,7 @@
       <c r="O45" s="3">
         <v>12179</v>
       </c>
-      <c r="P45" s="3">
-        <v>73</v>
-      </c>
+      <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
@@ -49307,9 +49221,7 @@
       <c r="O46" s="3">
         <v>122</v>
       </c>
-      <c r="P46" s="3">
-        <v>65</v>
-      </c>
+      <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
       <c r="R46" s="3"/>
       <c r="S46" s="3"/>
@@ -49358,9 +49270,7 @@
       <c r="O47" s="3">
         <v>7442</v>
       </c>
-      <c r="P47" s="3">
-        <v>59</v>
-      </c>
+      <c r="P47" s="3"/>
       <c r="Q47" s="3"/>
       <c r="R47" s="3"/>
       <c r="S47" s="3"/>
@@ -49409,9 +49319,7 @@
       <c r="O48" s="3">
         <v>1363</v>
       </c>
-      <c r="P48" s="3">
-        <v>79</v>
-      </c>
+      <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
       <c r="R48" s="3"/>
       <c r="S48" s="3"/>
@@ -49460,9 +49368,7 @@
       <c r="O49" s="3">
         <v>389</v>
       </c>
-      <c r="P49" s="3">
-        <v>59</v>
-      </c>
+      <c r="P49" s="3"/>
       <c r="Q49" s="3"/>
       <c r="R49" s="3"/>
       <c r="S49" s="3"/>
@@ -49511,9 +49417,7 @@
       <c r="O50" s="3">
         <v>345</v>
       </c>
-      <c r="P50" s="3">
-        <v>69</v>
-      </c>
+      <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
       <c r="S50" s="3"/>
@@ -49564,9 +49468,7 @@
       <c r="O51" s="3">
         <v>54470</v>
       </c>
-      <c r="P51" s="3">
-        <v>764</v>
-      </c>
+      <c r="P51" s="3"/>
       <c r="Q51" s="3"/>
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
@@ -49615,9 +49517,7 @@
       <c r="O52" s="3">
         <v>8691</v>
       </c>
-      <c r="P52" s="3">
-        <v>67</v>
-      </c>
+      <c r="P52" s="3"/>
       <c r="Q52" s="3"/>
       <c r="R52" s="3"/>
       <c r="S52" s="3"/>
@@ -49668,9 +49568,7 @@
       <c r="O53" s="3">
         <v>3957</v>
       </c>
-      <c r="P53" s="3">
-        <v>83</v>
-      </c>
+      <c r="P53" s="3"/>
       <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
       <c r="S53" s="3"/>
@@ -49721,9 +49619,7 @@
       <c r="O54" s="3">
         <v>256</v>
       </c>
-      <c r="P54" s="3">
-        <v>59</v>
-      </c>
+      <c r="P54" s="3"/>
       <c r="Q54" s="3"/>
       <c r="R54" s="3"/>
       <c r="S54" s="3"/>
@@ -49774,9 +49670,7 @@
       <c r="O55" s="3">
         <v>1091</v>
       </c>
-      <c r="P55" s="3">
-        <v>59</v>
-      </c>
+      <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
@@ -49823,9 +49717,7 @@
       <c r="O56" s="3">
         <v>10990</v>
       </c>
-      <c r="P56" s="3">
-        <v>59</v>
-      </c>
+      <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
@@ -49874,9 +49766,7 @@
         <v>8557</v>
       </c>
       <c r="O57" s="3"/>
-      <c r="P57" s="3">
-        <v>73</v>
-      </c>
+      <c r="P57" s="3"/>
       <c r="Q57" s="3"/>
       <c r="R57" s="3"/>
       <c r="S57" s="3"/>
@@ -49925,9 +49815,7 @@
       <c r="O58" s="3">
         <v>2148</v>
       </c>
-      <c r="P58" s="3">
-        <v>55</v>
-      </c>
+      <c r="P58" s="3"/>
       <c r="Q58" s="3"/>
       <c r="R58" s="3"/>
       <c r="S58" s="3"/>
@@ -49978,9 +49866,7 @@
       <c r="O59" s="3">
         <v>11667</v>
       </c>
-      <c r="P59" s="3">
-        <v>75</v>
-      </c>
+      <c r="P59" s="3"/>
       <c r="Q59" s="3"/>
       <c r="R59" s="3"/>
       <c r="S59" s="3"/>
@@ -50027,9 +49913,7 @@
       <c r="M60" s="3"/>
       <c r="N60" s="3"/>
       <c r="O60" s="3"/>
-      <c r="P60" s="3">
-        <v>49</v>
-      </c>
+      <c r="P60" s="3"/>
       <c r="Q60" s="3"/>
       <c r="R60" s="3"/>
       <c r="S60" s="3"/>
@@ -50080,9 +49964,7 @@
       <c r="O61" s="3">
         <v>7016</v>
       </c>
-      <c r="P61" s="3">
-        <v>63</v>
-      </c>
+      <c r="P61" s="3"/>
       <c r="Q61" s="3"/>
       <c r="R61" s="3"/>
       <c r="S61" s="3"/>
@@ -50131,9 +50013,7 @@
       <c r="O62" s="3">
         <v>8654</v>
       </c>
-      <c r="P62" s="3">
-        <v>55</v>
-      </c>
+      <c r="P62" s="3"/>
       <c r="Q62" s="3"/>
       <c r="R62" s="3"/>
       <c r="S62" s="3"/>
@@ -50180,9 +50060,7 @@
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
       <c r="O63" s="3"/>
-      <c r="P63" s="3">
-        <v>67</v>
-      </c>
+      <c r="P63" s="3"/>
       <c r="Q63" s="3"/>
       <c r="R63" s="3"/>
       <c r="S63" s="3"/>
@@ -50235,9 +50113,7 @@
       <c r="O64" s="3">
         <v>298131</v>
       </c>
-      <c r="P64" s="3">
-        <v>3358</v>
-      </c>
+      <c r="P64" s="3"/>
       <c r="Q64" s="3"/>
       <c r="R64" s="3"/>
       <c r="S64" s="3"/>
@@ -50288,9 +50164,7 @@
       <c r="O65" s="3">
         <v>77873</v>
       </c>
-      <c r="P65" s="3">
-        <v>985</v>
-      </c>
+      <c r="P65" s="3"/>
       <c r="Q65" s="3"/>
       <c r="R65" s="3"/>
       <c r="S65" s="3"/>
@@ -50341,9 +50215,7 @@
       <c r="O66" s="3">
         <v>2127</v>
       </c>
-      <c r="P66" s="3">
-        <v>83</v>
-      </c>
+      <c r="P66" s="3"/>
       <c r="Q66" s="3"/>
       <c r="R66" s="3"/>
       <c r="S66" s="3"/>
@@ -50392,9 +50264,7 @@
       <c r="O67" s="3">
         <v>6854</v>
       </c>
-      <c r="P67" s="3">
-        <v>75</v>
-      </c>
+      <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
@@ -50445,9 +50315,7 @@
       <c r="O68" s="3">
         <v>7769</v>
       </c>
-      <c r="P68" s="3">
-        <v>83</v>
-      </c>
+      <c r="P68" s="3"/>
       <c r="Q68" s="3"/>
       <c r="R68" s="3"/>
       <c r="S68" s="3"/>
@@ -50498,9 +50366,7 @@
       <c r="O69" s="3">
         <v>4531</v>
       </c>
-      <c r="P69" s="3">
-        <v>59</v>
-      </c>
+      <c r="P69" s="3"/>
       <c r="Q69" s="3"/>
       <c r="R69" s="3"/>
       <c r="S69" s="3"/>
@@ -50551,9 +50417,7 @@
       <c r="O70" s="3">
         <v>5400</v>
       </c>
-      <c r="P70" s="3">
-        <v>67</v>
-      </c>
+      <c r="P70" s="3"/>
       <c r="Q70" s="3"/>
       <c r="R70" s="3"/>
       <c r="S70" s="3"/>
@@ -50604,9 +50468,7 @@
       <c r="O71" s="3">
         <v>2483</v>
       </c>
-      <c r="P71" s="3">
-        <v>59</v>
-      </c>
+      <c r="P71" s="3"/>
       <c r="Q71" s="3"/>
       <c r="R71" s="3"/>
       <c r="S71" s="3"/>
@@ -50655,9 +50517,7 @@
       <c r="O72" s="3">
         <v>4019</v>
       </c>
-      <c r="P72" s="3">
-        <v>59</v>
-      </c>
+      <c r="P72" s="3"/>
       <c r="Q72" s="3"/>
       <c r="R72" s="3"/>
       <c r="S72" s="3"/>
@@ -50706,9 +50566,7 @@
       <c r="O73" s="3">
         <v>3393</v>
       </c>
-      <c r="P73" s="3">
-        <v>59</v>
-      </c>
+      <c r="P73" s="3"/>
       <c r="Q73" s="3"/>
       <c r="R73" s="3"/>
       <c r="S73" s="3"/>
@@ -50757,9 +50615,7 @@
       <c r="O74" s="3">
         <v>3424</v>
       </c>
-      <c r="P74" s="3">
-        <v>59</v>
-      </c>
+      <c r="P74" s="3"/>
       <c r="Q74" s="3"/>
       <c r="R74" s="3"/>
       <c r="S74" s="3"/>
@@ -50810,9 +50666,7 @@
       <c r="O75" s="3">
         <v>5756</v>
       </c>
-      <c r="P75" s="3">
-        <v>67</v>
-      </c>
+      <c r="P75" s="3"/>
       <c r="Q75" s="3"/>
       <c r="R75" s="3"/>
       <c r="S75" s="3"/>
@@ -50861,9 +50715,7 @@
       <c r="O76" s="3">
         <v>2914</v>
       </c>
-      <c r="P76" s="3">
-        <v>55</v>
-      </c>
+      <c r="P76" s="3"/>
       <c r="Q76" s="3"/>
       <c r="R76" s="3"/>
       <c r="S76" s="3"/>
@@ -50912,9 +50764,7 @@
       <c r="O77" s="3">
         <v>7216</v>
       </c>
-      <c r="P77" s="3">
-        <v>67</v>
-      </c>
+      <c r="P77" s="3"/>
       <c r="Q77" s="3"/>
       <c r="R77" s="3"/>
       <c r="S77" s="3"/>
@@ -50963,9 +50813,7 @@
       <c r="O78" s="3">
         <v>12772</v>
       </c>
-      <c r="P78" s="3">
-        <v>67</v>
-      </c>
+      <c r="P78" s="3"/>
       <c r="Q78" s="3"/>
       <c r="R78" s="3"/>
       <c r="S78" s="3"/>
@@ -51014,9 +50862,7 @@
       <c r="O79" s="3">
         <v>4773</v>
       </c>
-      <c r="P79" s="3">
-        <v>59</v>
-      </c>
+      <c r="P79" s="3"/>
       <c r="Q79" s="3"/>
       <c r="R79" s="3"/>
       <c r="S79" s="3"/>
@@ -51067,9 +50913,7 @@
       <c r="O80" s="3">
         <v>4442</v>
       </c>
-      <c r="P80" s="3">
-        <v>67</v>
-      </c>
+      <c r="P80" s="3"/>
       <c r="Q80" s="3"/>
       <c r="R80" s="3"/>
       <c r="S80" s="3"/>
@@ -51122,9 +50966,7 @@
       <c r="O81" s="3">
         <v>67581</v>
       </c>
-      <c r="P81" s="3">
-        <v>740</v>
-      </c>
+      <c r="P81" s="3"/>
       <c r="Q81" s="3"/>
       <c r="R81" s="3"/>
       <c r="S81" s="3"/>
@@ -51173,9 +51015,7 @@
       <c r="O82" s="3">
         <v>3599</v>
       </c>
-      <c r="P82" s="3">
-        <v>59</v>
-      </c>
+      <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
@@ -51226,9 +51066,7 @@
       <c r="O83" s="3">
         <v>8758</v>
       </c>
-      <c r="P83" s="3">
-        <v>67</v>
-      </c>
+      <c r="P83" s="3"/>
       <c r="Q83" s="3"/>
       <c r="R83" s="3"/>
       <c r="S83" s="3"/>
@@ -51279,9 +51117,7 @@
       <c r="O84" s="3">
         <v>16316</v>
       </c>
-      <c r="P84" s="3">
-        <v>91</v>
-      </c>
+      <c r="P84" s="3"/>
       <c r="Q84" s="3"/>
       <c r="R84" s="3"/>
       <c r="S84" s="3"/>
@@ -51332,9 +51168,7 @@
       <c r="O85" s="3">
         <v>9014</v>
       </c>
-      <c r="P85" s="3">
-        <v>59</v>
-      </c>
+      <c r="P85" s="3"/>
       <c r="Q85" s="3"/>
       <c r="R85" s="3"/>
       <c r="S85" s="3"/>
@@ -51385,9 +51219,7 @@
       <c r="O86" s="3">
         <v>67</v>
       </c>
-      <c r="P86" s="3">
-        <v>55</v>
-      </c>
+      <c r="P86" s="3"/>
       <c r="Q86" s="3"/>
       <c r="R86" s="3"/>
       <c r="S86" s="3"/>
@@ -51434,9 +51266,7 @@
       <c r="M87" s="3"/>
       <c r="N87" s="3"/>
       <c r="O87" s="3"/>
-      <c r="P87" s="3">
-        <v>55</v>
-      </c>
+      <c r="P87" s="3"/>
       <c r="Q87" s="3"/>
       <c r="R87" s="3"/>
       <c r="S87" s="3"/>
@@ -51485,9 +51315,7 @@
       <c r="O88" s="3">
         <v>5133</v>
       </c>
-      <c r="P88" s="3">
-        <v>67</v>
-      </c>
+      <c r="P88" s="3"/>
       <c r="Q88" s="3"/>
       <c r="R88" s="3"/>
       <c r="S88" s="3"/>
@@ -51538,9 +51366,7 @@
       <c r="O89" s="3">
         <v>6927</v>
       </c>
-      <c r="P89" s="3">
-        <v>49</v>
-      </c>
+      <c r="P89" s="3"/>
       <c r="Q89" s="3"/>
       <c r="R89" s="3"/>
       <c r="S89" s="3"/>
@@ -51587,9 +51413,7 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-      <c r="P90" s="3">
-        <v>55</v>
-      </c>
+      <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
@@ -51638,9 +51462,7 @@
       <c r="O91" s="3">
         <v>6083</v>
       </c>
-      <c r="P91" s="3">
-        <v>55</v>
-      </c>
+      <c r="P91" s="3"/>
       <c r="Q91" s="3"/>
       <c r="R91" s="3"/>
       <c r="S91" s="3"/>
@@ -51689,9 +51511,7 @@
       <c r="O92" s="3">
         <v>2194</v>
       </c>
-      <c r="P92" s="3">
-        <v>55</v>
-      </c>
+      <c r="P92" s="3"/>
       <c r="Q92" s="3"/>
       <c r="R92" s="3"/>
       <c r="S92" s="3"/>
@@ -51742,9 +51562,7 @@
       <c r="O93" s="3">
         <v>9490</v>
       </c>
-      <c r="P93" s="3">
-        <v>73</v>
-      </c>
+      <c r="P93" s="3"/>
       <c r="Q93" s="3"/>
       <c r="R93" s="3"/>
       <c r="S93" s="3"/>
@@ -51795,9 +51613,7 @@
       <c r="O94" s="3">
         <v>35491</v>
       </c>
-      <c r="P94" s="3">
-        <v>492</v>
-      </c>
+      <c r="P94" s="3"/>
       <c r="Q94" s="3"/>
       <c r="R94" s="3"/>
       <c r="S94" s="3"/>
@@ -51848,9 +51664,7 @@
       <c r="O95" s="3">
         <v>4275</v>
       </c>
-      <c r="P95" s="3">
-        <v>59</v>
-      </c>
+      <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
@@ -51901,9 +51715,7 @@
       <c r="O96" s="3">
         <v>795</v>
       </c>
-      <c r="P96" s="3">
-        <v>67</v>
-      </c>
+      <c r="P96" s="3"/>
       <c r="Q96" s="3"/>
       <c r="R96" s="3"/>
       <c r="S96" s="3"/>
@@ -51952,9 +51764,7 @@
       <c r="O97" s="3">
         <v>3921</v>
       </c>
-      <c r="P97" s="3">
-        <v>67</v>
-      </c>
+      <c r="P97" s="3"/>
       <c r="Q97" s="3"/>
       <c r="R97" s="3"/>
       <c r="S97" s="3"/>
@@ -52003,9 +51813,7 @@
       <c r="O98" s="3">
         <v>15154</v>
       </c>
-      <c r="P98" s="3">
-        <v>61</v>
-      </c>
+      <c r="P98" s="3"/>
       <c r="Q98" s="3"/>
       <c r="R98" s="3"/>
       <c r="S98" s="3"/>
@@ -52052,9 +51860,7 @@
       <c r="M99" s="3"/>
       <c r="N99" s="3"/>
       <c r="O99" s="3"/>
-      <c r="P99" s="3">
-        <v>49</v>
-      </c>
+      <c r="P99" s="3"/>
       <c r="Q99" s="3"/>
       <c r="R99" s="3"/>
       <c r="S99" s="3"/>
@@ -52103,9 +51909,7 @@
       <c r="O100" s="3">
         <v>4420</v>
       </c>
-      <c r="P100" s="3">
-        <v>73</v>
-      </c>
+      <c r="P100" s="3"/>
       <c r="Q100" s="3"/>
       <c r="R100" s="3"/>
       <c r="S100" s="3"/>
@@ -52154,9 +51958,7 @@
       <c r="O101" s="3">
         <v>5832</v>
       </c>
-      <c r="P101" s="3">
-        <v>61</v>
-      </c>
+      <c r="P101" s="3"/>
       <c r="Q101" s="3"/>
       <c r="R101" s="3"/>
       <c r="S101" s="3"/>
@@ -52205,9 +52007,7 @@
       <c r="O102" s="3">
         <v>1094</v>
       </c>
-      <c r="P102" s="3">
-        <v>55</v>
-      </c>
+      <c r="P102" s="3"/>
       <c r="Q102" s="3"/>
       <c r="R102" s="3"/>
       <c r="S102" s="3"/>
@@ -52258,9 +52058,7 @@
       <c r="O103" s="3">
         <v>42276</v>
       </c>
-      <c r="P103" s="3">
-        <v>407</v>
-      </c>
+      <c r="P103" s="3"/>
       <c r="Q103" s="3"/>
       <c r="R103" s="3"/>
       <c r="S103" s="3"/>
@@ -52309,9 +52107,7 @@
       <c r="O104" s="3">
         <v>14372</v>
       </c>
-      <c r="P104" s="3">
-        <v>65</v>
-      </c>
+      <c r="P104" s="3"/>
       <c r="Q104" s="3"/>
       <c r="R104" s="3"/>
       <c r="S104" s="3"/>
@@ -52360,9 +52156,7 @@
       <c r="O105" s="3">
         <v>13194</v>
       </c>
-      <c r="P105" s="3">
-        <v>61</v>
-      </c>
+      <c r="P105" s="3"/>
       <c r="Q105" s="3"/>
       <c r="R105" s="3"/>
       <c r="S105" s="3"/>
@@ -52411,9 +52205,7 @@
       <c r="O106" s="3">
         <v>396</v>
       </c>
-      <c r="P106" s="3">
-        <v>55</v>
-      </c>
+      <c r="P106" s="3"/>
       <c r="Q106" s="3"/>
       <c r="R106" s="3"/>
       <c r="S106" s="3"/>
@@ -52462,9 +52254,7 @@
       <c r="O107" s="3">
         <v>6669</v>
       </c>
-      <c r="P107" s="3">
-        <v>49</v>
-      </c>
+      <c r="P107" s="3"/>
       <c r="Q107" s="3"/>
       <c r="R107" s="3"/>
       <c r="S107" s="3"/>
@@ -52513,9 +52303,7 @@
       <c r="O108" s="3">
         <v>1278</v>
       </c>
-      <c r="P108" s="3">
-        <v>61</v>
-      </c>
+      <c r="P108" s="3"/>
       <c r="Q108" s="3"/>
       <c r="R108" s="3"/>
       <c r="S108" s="3"/>
@@ -52566,9 +52354,7 @@
       <c r="O109" s="3">
         <v>804</v>
       </c>
-      <c r="P109" s="3">
-        <v>61</v>
-      </c>
+      <c r="P109" s="3"/>
       <c r="Q109" s="3"/>
       <c r="R109" s="3"/>
       <c r="S109" s="3"/>
@@ -52617,9 +52403,7 @@
       <c r="O110" s="3">
         <v>5563</v>
       </c>
-      <c r="P110" s="3">
-        <v>55</v>
-      </c>
+      <c r="P110" s="3"/>
       <c r="Q110" s="3"/>
       <c r="R110" s="3"/>
       <c r="S110" s="3"/>
@@ -52670,9 +52454,7 @@
       <c r="O111" s="3">
         <v>74910</v>
       </c>
-      <c r="P111" s="3">
-        <v>734</v>
-      </c>
+      <c r="P111" s="3"/>
       <c r="Q111" s="3"/>
       <c r="R111" s="3"/>
       <c r="S111" s="3"/>
@@ -52723,9 +52505,7 @@
       <c r="O112" s="3">
         <v>10253</v>
       </c>
-      <c r="P112" s="3">
-        <v>69</v>
-      </c>
+      <c r="P112" s="3"/>
       <c r="Q112" s="3"/>
       <c r="R112" s="3"/>
       <c r="S112" s="3"/>
@@ -52776,9 +52556,7 @@
       <c r="O113" s="3">
         <v>7163</v>
       </c>
-      <c r="P113" s="3">
-        <v>83</v>
-      </c>
+      <c r="P113" s="3"/>
       <c r="Q113" s="3"/>
       <c r="R113" s="3"/>
       <c r="S113" s="3"/>
@@ -52829,9 +52607,7 @@
       <c r="O114" s="3">
         <v>2227</v>
       </c>
-      <c r="P114" s="3">
-        <v>59</v>
-      </c>
+      <c r="P114" s="3"/>
       <c r="Q114" s="3"/>
       <c r="R114" s="3"/>
       <c r="S114" s="3"/>
@@ -52882,9 +52658,7 @@
       <c r="O115" s="3">
         <v>6405</v>
       </c>
-      <c r="P115" s="3">
-        <v>59</v>
-      </c>
+      <c r="P115" s="3"/>
       <c r="Q115" s="3"/>
       <c r="R115" s="3"/>
       <c r="S115" s="3"/>
@@ -52933,9 +52707,7 @@
       <c r="O116" s="3">
         <v>9396</v>
       </c>
-      <c r="P116" s="3">
-        <v>59</v>
-      </c>
+      <c r="P116" s="3"/>
       <c r="Q116" s="3"/>
       <c r="R116" s="3"/>
       <c r="S116" s="3"/>
@@ -52984,9 +52756,7 @@
       <c r="O117" s="3">
         <v>6687</v>
       </c>
-      <c r="P117" s="3">
-        <v>61</v>
-      </c>
+      <c r="P117" s="3"/>
       <c r="Q117" s="3"/>
       <c r="R117" s="3"/>
       <c r="S117" s="3"/>
@@ -53033,9 +52803,7 @@
       <c r="M118" s="3"/>
       <c r="N118" s="3"/>
       <c r="O118" s="3"/>
-      <c r="P118" s="3">
-        <v>55</v>
-      </c>
+      <c r="P118" s="3"/>
       <c r="Q118" s="3"/>
       <c r="R118" s="3"/>
       <c r="S118" s="3"/>
@@ -53086,9 +52854,7 @@
       <c r="O119" s="3">
         <v>12849</v>
       </c>
-      <c r="P119" s="3">
-        <v>63</v>
-      </c>
+      <c r="P119" s="3"/>
       <c r="Q119" s="3"/>
       <c r="R119" s="3"/>
       <c r="S119" s="3"/>
@@ -53137,9 +52903,7 @@
       <c r="O120" s="3">
         <v>614</v>
       </c>
-      <c r="P120" s="3">
-        <v>49</v>
-      </c>
+      <c r="P120" s="3"/>
       <c r="Q120" s="3"/>
       <c r="R120" s="3"/>
       <c r="S120" s="3"/>
@@ -53188,9 +52952,7 @@
       <c r="O121" s="3">
         <v>9947</v>
       </c>
-      <c r="P121" s="3">
-        <v>55</v>
-      </c>
+      <c r="P121" s="3"/>
       <c r="Q121" s="3"/>
       <c r="R121" s="3"/>
       <c r="S121" s="3"/>
@@ -53239,9 +53001,7 @@
       <c r="O122" s="3">
         <v>9369</v>
       </c>
-      <c r="P122" s="3">
-        <v>55</v>
-      </c>
+      <c r="P122" s="3"/>
       <c r="Q122" s="3"/>
       <c r="R122" s="3"/>
       <c r="S122" s="3"/>
@@ -53290,9 +53050,7 @@
         <v>1021</v>
       </c>
       <c r="O123" s="3"/>
-      <c r="P123" s="3">
-        <v>67</v>
-      </c>
+      <c r="P123" s="3"/>
       <c r="Q123" s="3"/>
       <c r="R123" s="3"/>
       <c r="S123" s="3"/>
@@ -53345,9 +53103,7 @@
       <c r="O124" s="3">
         <v>221855</v>
       </c>
-      <c r="P124" s="3">
-        <v>3312</v>
-      </c>
+      <c r="P124" s="3"/>
       <c r="Q124" s="3"/>
       <c r="R124" s="3"/>
       <c r="S124" s="3"/>
@@ -53400,9 +53156,7 @@
       <c r="O125" s="3">
         <v>46865</v>
       </c>
-      <c r="P125" s="3">
-        <v>958</v>
-      </c>
+      <c r="P125" s="3"/>
       <c r="Q125" s="3"/>
       <c r="R125" s="3"/>
       <c r="S125" s="3"/>
@@ -53455,9 +53209,7 @@
       <c r="O126" s="3">
         <v>290</v>
       </c>
-      <c r="P126" s="3">
-        <v>82</v>
-      </c>
+      <c r="P126" s="3"/>
       <c r="Q126" s="3"/>
       <c r="R126" s="3"/>
       <c r="S126" s="3"/>
@@ -53510,9 +53262,7 @@
       <c r="O127" s="3">
         <v>371</v>
       </c>
-      <c r="P127" s="3">
-        <v>74</v>
-      </c>
+      <c r="P127" s="3"/>
       <c r="Q127" s="3"/>
       <c r="R127" s="3"/>
       <c r="S127" s="3"/>
@@ -53565,9 +53315,7 @@
       <c r="O128" s="3">
         <v>193</v>
       </c>
-      <c r="P128" s="3">
-        <v>82</v>
-      </c>
+      <c r="P128" s="3"/>
       <c r="Q128" s="3"/>
       <c r="R128" s="3"/>
       <c r="S128" s="3"/>
@@ -53618,9 +53366,7 @@
       <c r="O129" s="3">
         <v>3952</v>
       </c>
-      <c r="P129" s="3">
-        <v>58</v>
-      </c>
+      <c r="P129" s="3"/>
       <c r="Q129" s="3"/>
       <c r="R129" s="3"/>
       <c r="S129" s="3"/>
@@ -53669,9 +53415,7 @@
       <c r="O130" s="3">
         <v>8397</v>
       </c>
-      <c r="P130" s="3">
-        <v>68</v>
-      </c>
+      <c r="P130" s="3"/>
       <c r="Q130" s="3"/>
       <c r="R130" s="3"/>
       <c r="S130" s="3"/>
@@ -53720,9 +53464,7 @@
       <c r="O131" s="3">
         <v>4068</v>
       </c>
-      <c r="P131" s="3">
-        <v>52</v>
-      </c>
+      <c r="P131" s="3"/>
       <c r="Q131" s="3"/>
       <c r="R131" s="3"/>
       <c r="S131" s="3"/>
@@ -53771,9 +53513,7 @@
       <c r="M132" s="3"/>
       <c r="N132" s="3"/>
       <c r="O132" s="3"/>
-      <c r="P132" s="3">
-        <v>58</v>
-      </c>
+      <c r="P132" s="3"/>
       <c r="Q132" s="3"/>
       <c r="R132" s="3"/>
       <c r="S132" s="3"/>
@@ -53822,9 +53562,7 @@
       <c r="O133" s="3">
         <v>2351</v>
       </c>
-      <c r="P133" s="3">
-        <v>54</v>
-      </c>
+      <c r="P133" s="3"/>
       <c r="Q133" s="3"/>
       <c r="R133" s="3"/>
       <c r="S133" s="3"/>
@@ -53873,9 +53611,7 @@
       <c r="O134" s="3">
         <v>4397</v>
       </c>
-      <c r="P134" s="3">
-        <v>58</v>
-      </c>
+      <c r="P134" s="3"/>
       <c r="Q134" s="3"/>
       <c r="R134" s="3"/>
       <c r="S134" s="3"/>
@@ -53926,9 +53662,7 @@
       <c r="O135" s="3">
         <v>2045</v>
       </c>
-      <c r="P135" s="3">
-        <v>66</v>
-      </c>
+      <c r="P135" s="3"/>
       <c r="Q135" s="3"/>
       <c r="R135" s="3"/>
       <c r="S135" s="3"/>
@@ -53975,9 +53709,7 @@
       <c r="M136" s="3"/>
       <c r="N136" s="3"/>
       <c r="O136" s="3"/>
-      <c r="P136" s="3">
-        <v>54</v>
-      </c>
+      <c r="P136" s="3"/>
       <c r="Q136" s="3"/>
       <c r="R136" s="3"/>
       <c r="S136" s="3"/>
@@ -54026,9 +53758,7 @@
       <c r="O137" s="3">
         <v>7822</v>
       </c>
-      <c r="P137" s="3">
-        <v>66</v>
-      </c>
+      <c r="P137" s="3"/>
       <c r="Q137" s="3"/>
       <c r="R137" s="3"/>
       <c r="S137" s="3"/>
@@ -54079,9 +53809,7 @@
       <c r="O138" s="3">
         <v>9428</v>
       </c>
-      <c r="P138" s="3">
-        <v>66</v>
-      </c>
+      <c r="P138" s="3"/>
       <c r="Q138" s="3"/>
       <c r="R138" s="3"/>
       <c r="S138" s="3"/>
@@ -54130,9 +53858,7 @@
       <c r="O139" s="3">
         <v>165</v>
       </c>
-      <c r="P139" s="3">
-        <v>54</v>
-      </c>
+      <c r="P139" s="3"/>
       <c r="Q139" s="3"/>
       <c r="R139" s="3"/>
       <c r="S139" s="3"/>
@@ -54181,9 +53907,7 @@
       <c r="O140" s="3">
         <v>3386</v>
       </c>
-      <c r="P140" s="3">
-        <v>66</v>
-      </c>
+      <c r="P140" s="3"/>
       <c r="Q140" s="3"/>
       <c r="R140" s="3"/>
       <c r="S140" s="3"/>
@@ -54236,9 +53960,7 @@
       <c r="O141" s="3">
         <v>37660</v>
       </c>
-      <c r="P141" s="3">
-        <v>734</v>
-      </c>
+      <c r="P141" s="3"/>
       <c r="Q141" s="3"/>
       <c r="R141" s="3"/>
       <c r="S141" s="3"/>
@@ -54289,9 +54011,7 @@
       <c r="O142" s="3">
         <v>752</v>
       </c>
-      <c r="P142" s="3">
-        <v>58</v>
-      </c>
+      <c r="P142" s="3"/>
       <c r="Q142" s="3"/>
       <c r="R142" s="3"/>
       <c r="S142" s="3"/>
@@ -54342,9 +54062,7 @@
       <c r="O143" s="3">
         <v>4588</v>
       </c>
-      <c r="P143" s="3">
-        <v>66</v>
-      </c>
+      <c r="P143" s="3"/>
       <c r="Q143" s="3"/>
       <c r="R143" s="3"/>
       <c r="S143" s="3"/>
@@ -54397,9 +54115,7 @@
       <c r="O144" s="3">
         <v>3979</v>
       </c>
-      <c r="P144" s="3">
-        <v>94</v>
-      </c>
+      <c r="P144" s="3"/>
       <c r="Q144" s="3"/>
       <c r="R144" s="3"/>
       <c r="S144" s="3"/>
@@ -54448,9 +54164,7 @@
       <c r="O145" s="3">
         <v>8309</v>
       </c>
-      <c r="P145" s="3">
-        <v>58</v>
-      </c>
+      <c r="P145" s="3"/>
       <c r="Q145" s="3"/>
       <c r="R145" s="3"/>
       <c r="S145" s="3"/>
@@ -54501,9 +54215,7 @@
         <v>837</v>
       </c>
       <c r="O146" s="3"/>
-      <c r="P146" s="3">
-        <v>56</v>
-      </c>
+      <c r="P146" s="3"/>
       <c r="Q146" s="3"/>
       <c r="R146" s="3"/>
       <c r="S146" s="3"/>
@@ -54554,9 +54266,7 @@
       <c r="O147" s="3">
         <v>1471</v>
       </c>
-      <c r="P147" s="3">
-        <v>54</v>
-      </c>
+      <c r="P147" s="3"/>
       <c r="Q147" s="3"/>
       <c r="R147" s="3"/>
       <c r="S147" s="3"/>
@@ -54605,9 +54315,7 @@
       <c r="O148" s="3">
         <v>193</v>
       </c>
-      <c r="P148" s="3">
-        <v>66</v>
-      </c>
+      <c r="P148" s="3"/>
       <c r="Q148" s="3"/>
       <c r="R148" s="3"/>
       <c r="S148" s="3"/>
@@ -54656,9 +54364,7 @@
       <c r="O149" s="3">
         <v>5537</v>
       </c>
-      <c r="P149" s="3">
-        <v>48</v>
-      </c>
+      <c r="P149" s="3"/>
       <c r="Q149" s="3"/>
       <c r="R149" s="3"/>
       <c r="S149" s="3"/>
@@ -54705,9 +54411,7 @@
       <c r="M150" s="3"/>
       <c r="N150" s="3"/>
       <c r="O150" s="3"/>
-      <c r="P150" s="3">
-        <v>54</v>
-      </c>
+      <c r="P150" s="3"/>
       <c r="Q150" s="3"/>
       <c r="R150" s="3"/>
       <c r="S150" s="3"/>
@@ -54756,9 +54460,7 @@
       <c r="O151" s="3">
         <v>5244</v>
       </c>
-      <c r="P151" s="3">
-        <v>54</v>
-      </c>
+      <c r="P151" s="3"/>
       <c r="Q151" s="3"/>
       <c r="R151" s="3"/>
       <c r="S151" s="3"/>
@@ -54807,9 +54509,7 @@
       <c r="O152" s="3">
         <v>6104</v>
       </c>
-      <c r="P152" s="3">
-        <v>54</v>
-      </c>
+      <c r="P152" s="3"/>
       <c r="Q152" s="3"/>
       <c r="R152" s="3"/>
       <c r="S152" s="3"/>
@@ -54858,9 +54558,7 @@
       <c r="O153" s="3">
         <v>1483</v>
       </c>
-      <c r="P153" s="3">
-        <v>72</v>
-      </c>
+      <c r="P153" s="3"/>
       <c r="Q153" s="3"/>
       <c r="R153" s="3"/>
       <c r="S153" s="3"/>
@@ -54913,9 +54611,7 @@
       <c r="O154" s="3">
         <v>41371</v>
       </c>
-      <c r="P154" s="3">
-        <v>492</v>
-      </c>
+      <c r="P154" s="3"/>
       <c r="Q154" s="3"/>
       <c r="R154" s="3"/>
       <c r="S154" s="3"/>
@@ -54964,9 +54660,7 @@
       <c r="O155" s="3">
         <v>5521</v>
       </c>
-      <c r="P155" s="3">
-        <v>58</v>
-      </c>
+      <c r="P155" s="3"/>
       <c r="Q155" s="3"/>
       <c r="R155" s="3"/>
       <c r="S155" s="3"/>
@@ -55019,9 +54713,7 @@
       <c r="O156" s="3">
         <v>2267</v>
       </c>
-      <c r="P156" s="3">
-        <v>66</v>
-      </c>
+      <c r="P156" s="3"/>
       <c r="Q156" s="3"/>
       <c r="R156" s="3"/>
       <c r="S156" s="3"/>
@@ -55072,9 +54764,7 @@
       <c r="O157" s="3">
         <v>2831</v>
       </c>
-      <c r="P157" s="3">
-        <v>66</v>
-      </c>
+      <c r="P157" s="3"/>
       <c r="Q157" s="3"/>
       <c r="R157" s="3"/>
       <c r="S157" s="3"/>
@@ -55123,9 +54813,7 @@
       <c r="O158" s="3">
         <v>12742</v>
       </c>
-      <c r="P158" s="3">
-        <v>60</v>
-      </c>
+      <c r="P158" s="3"/>
       <c r="Q158" s="3"/>
       <c r="R158" s="3"/>
       <c r="S158" s="3"/>
@@ -55174,9 +54862,7 @@
       <c r="O159" s="3">
         <v>1221</v>
       </c>
-      <c r="P159" s="3">
-        <v>54</v>
-      </c>
+      <c r="P159" s="3"/>
       <c r="Q159" s="3"/>
       <c r="R159" s="3"/>
       <c r="S159" s="3"/>
@@ -55227,9 +54913,7 @@
       <c r="O160" s="3">
         <v>9888</v>
       </c>
-      <c r="P160" s="3">
-        <v>72</v>
-      </c>
+      <c r="P160" s="3"/>
       <c r="Q160" s="3"/>
       <c r="R160" s="3"/>
       <c r="S160" s="3"/>
@@ -55276,9 +54960,7 @@
       <c r="M161" s="3"/>
       <c r="N161" s="3"/>
       <c r="O161" s="3"/>
-      <c r="P161" s="3">
-        <v>62</v>
-      </c>
+      <c r="P161" s="3"/>
       <c r="Q161" s="3"/>
       <c r="R161" s="3"/>
       <c r="S161" s="3"/>
@@ -55329,9 +55011,7 @@
       <c r="O162" s="3">
         <v>6901</v>
       </c>
-      <c r="P162" s="3">
-        <v>54</v>
-      </c>
+      <c r="P162" s="3"/>
       <c r="Q162" s="3"/>
       <c r="R162" s="3"/>
       <c r="S162" s="3"/>
@@ -55384,9 +55064,7 @@
       <c r="O163" s="3">
         <v>37519</v>
       </c>
-      <c r="P163" s="3">
-        <v>404</v>
-      </c>
+      <c r="P163" s="3"/>
       <c r="Q163" s="3"/>
       <c r="R163" s="3"/>
       <c r="S163" s="3"/>
@@ -55437,9 +55115,7 @@
       <c r="O164" s="3">
         <v>8789</v>
       </c>
-      <c r="P164" s="3">
-        <v>70</v>
-      </c>
+      <c r="P164" s="3"/>
       <c r="Q164" s="3"/>
       <c r="R164" s="3"/>
       <c r="S164" s="3"/>
@@ -55488,9 +55164,7 @@
       <c r="O165" s="3">
         <v>11509</v>
       </c>
-      <c r="P165" s="3">
-        <v>60</v>
-      </c>
+      <c r="P165" s="3"/>
       <c r="Q165" s="3"/>
       <c r="R165" s="3"/>
       <c r="S165" s="3"/>
@@ -55539,9 +55213,7 @@
       <c r="O166" s="3">
         <v>430</v>
       </c>
-      <c r="P166" s="3">
-        <v>52</v>
-      </c>
+      <c r="P166" s="3"/>
       <c r="Q166" s="3"/>
       <c r="R166" s="3"/>
       <c r="S166" s="3"/>
@@ -55590,9 +55262,7 @@
       <c r="O167" s="3">
         <v>4820</v>
       </c>
-      <c r="P167" s="3">
-        <v>48</v>
-      </c>
+      <c r="P167" s="3"/>
       <c r="Q167" s="3"/>
       <c r="R167" s="3"/>
       <c r="S167" s="3"/>
@@ -55641,9 +55311,7 @@
       <c r="O168" s="3">
         <v>5193</v>
       </c>
-      <c r="P168" s="3">
-        <v>60</v>
-      </c>
+      <c r="P168" s="3"/>
       <c r="Q168" s="3"/>
       <c r="R168" s="3"/>
       <c r="S168" s="3"/>
@@ -55694,9 +55362,7 @@
       <c r="O169" s="3">
         <v>1566</v>
       </c>
-      <c r="P169" s="3">
-        <v>60</v>
-      </c>
+      <c r="P169" s="3"/>
       <c r="Q169" s="3"/>
       <c r="R169" s="3"/>
       <c r="S169" s="3"/>
@@ -55745,9 +55411,7 @@
       <c r="O170" s="3">
         <v>5212</v>
       </c>
-      <c r="P170" s="3">
-        <v>54</v>
-      </c>
+      <c r="P170" s="3"/>
       <c r="Q170" s="3"/>
       <c r="R170" s="3"/>
       <c r="S170" s="3"/>
@@ -55800,9 +55464,7 @@
       <c r="O171" s="3">
         <v>58440</v>
       </c>
-      <c r="P171" s="3">
-        <v>724</v>
-      </c>
+      <c r="P171" s="3"/>
       <c r="Q171" s="3"/>
       <c r="R171" s="3"/>
       <c r="S171" s="3"/>
@@ -55851,9 +55513,7 @@
       <c r="O172" s="3">
         <v>7228</v>
       </c>
-      <c r="P172" s="3">
-        <v>66</v>
-      </c>
+      <c r="P172" s="3"/>
       <c r="Q172" s="3"/>
       <c r="R172" s="3"/>
       <c r="S172" s="3"/>
@@ -55902,9 +55562,7 @@
       <c r="O173" s="3">
         <v>13606</v>
       </c>
-      <c r="P173" s="3">
-        <v>82</v>
-      </c>
+      <c r="P173" s="3"/>
       <c r="Q173" s="3"/>
       <c r="R173" s="3"/>
       <c r="S173" s="3"/>
@@ -55955,9 +55613,7 @@
         <v>2550</v>
       </c>
       <c r="O174" s="3"/>
-      <c r="P174" s="3">
-        <v>58</v>
-      </c>
+      <c r="P174" s="3"/>
       <c r="Q174" s="3"/>
       <c r="R174" s="3"/>
       <c r="S174" s="3"/>
@@ -56006,9 +55662,7 @@
       <c r="O175" s="3">
         <v>4796</v>
       </c>
-      <c r="P175" s="3">
-        <v>58</v>
-      </c>
+      <c r="P175" s="3"/>
       <c r="Q175" s="3"/>
       <c r="R175" s="3"/>
       <c r="S175" s="3"/>
@@ -56059,9 +55713,7 @@
         <v>2245</v>
       </c>
       <c r="O176" s="3"/>
-      <c r="P176" s="3">
-        <v>58</v>
-      </c>
+      <c r="P176" s="3"/>
       <c r="Q176" s="3"/>
       <c r="R176" s="3"/>
       <c r="S176" s="3"/>
@@ -56110,9 +55762,7 @@
       <c r="O177" s="3">
         <v>7633</v>
       </c>
-      <c r="P177" s="3">
-        <v>60</v>
-      </c>
+      <c r="P177" s="3"/>
       <c r="Q177" s="3"/>
       <c r="R177" s="3"/>
       <c r="S177" s="3"/>
@@ -56159,9 +55809,7 @@
       <c r="M178" s="3"/>
       <c r="N178" s="3"/>
       <c r="O178" s="3"/>
-      <c r="P178" s="3">
-        <v>54</v>
-      </c>
+      <c r="P178" s="3"/>
       <c r="Q178" s="3"/>
       <c r="R178" s="3"/>
       <c r="S178" s="3"/>
@@ -56212,9 +55860,7 @@
       <c r="O179" s="3">
         <v>7761</v>
       </c>
-      <c r="P179" s="3">
-        <v>64</v>
-      </c>
+      <c r="P179" s="3"/>
       <c r="Q179" s="3"/>
       <c r="R179" s="3"/>
       <c r="S179" s="3"/>
@@ -56261,9 +55907,7 @@
       <c r="M180" s="3"/>
       <c r="N180" s="3"/>
       <c r="O180" s="3"/>
-      <c r="P180" s="3">
-        <v>48</v>
-      </c>
+      <c r="P180" s="3"/>
       <c r="Q180" s="3"/>
       <c r="R180" s="3"/>
       <c r="S180" s="3"/>
@@ -56312,9 +55956,7 @@
       <c r="O181" s="3">
         <v>7465</v>
       </c>
-      <c r="P181" s="3">
-        <v>54</v>
-      </c>
+      <c r="P181" s="3"/>
       <c r="Q181" s="3"/>
       <c r="R181" s="3"/>
       <c r="S181" s="3"/>
@@ -56363,9 +56005,7 @@
       <c r="O182" s="3">
         <v>9951</v>
       </c>
-      <c r="P182" s="3">
-        <v>56</v>
-      </c>
+      <c r="P182" s="3"/>
       <c r="Q182" s="3"/>
       <c r="R182" s="3"/>
       <c r="S182" s="3"/>
@@ -56414,9 +56054,7 @@
       <c r="M183" s="3"/>
       <c r="N183" s="3"/>
       <c r="O183" s="3"/>
-      <c r="P183" s="3">
-        <v>66</v>
-      </c>
+      <c r="P183" s="3"/>
       <c r="Q183" s="3"/>
       <c r="R183" s="3"/>
       <c r="S183" s="3"/>
@@ -56469,9 +56107,7 @@
       <c r="O184" s="3">
         <v>432466</v>
       </c>
-      <c r="P184" s="3">
-        <v>3398</v>
-      </c>
+      <c r="P184" s="3"/>
       <c r="Q184" s="3"/>
       <c r="R184" s="3"/>
       <c r="S184" s="3"/>
@@ -56524,9 +56160,7 @@
       <c r="O185" s="3">
         <v>110941</v>
       </c>
-      <c r="P185" s="3">
-        <v>1004</v>
-      </c>
+      <c r="P185" s="3"/>
       <c r="Q185" s="3"/>
       <c r="R185" s="3"/>
       <c r="S185" s="3"/>
@@ -56579,9 +56213,7 @@
       <c r="O186" s="3">
         <v>4956</v>
       </c>
-      <c r="P186" s="3">
-        <v>82</v>
-      </c>
+      <c r="P186" s="3"/>
       <c r="Q186" s="3"/>
       <c r="R186" s="3"/>
       <c r="S186" s="3"/>
@@ -56634,9 +56266,7 @@
       <c r="O187" s="3">
         <v>9978</v>
       </c>
-      <c r="P187" s="3">
-        <v>74</v>
-      </c>
+      <c r="P187" s="3"/>
       <c r="Q187" s="3"/>
       <c r="R187" s="3"/>
       <c r="S187" s="3"/>
@@ -56689,9 +56319,7 @@
       <c r="O188" s="3">
         <v>14248</v>
       </c>
-      <c r="P188" s="3">
-        <v>82</v>
-      </c>
+      <c r="P188" s="3"/>
       <c r="Q188" s="3"/>
       <c r="R188" s="3"/>
       <c r="S188" s="3"/>
@@ -56740,9 +56368,7 @@
       <c r="O189" s="3">
         <v>6083</v>
       </c>
-      <c r="P189" s="3">
-        <v>62</v>
-      </c>
+      <c r="P189" s="3"/>
       <c r="Q189" s="3"/>
       <c r="R189" s="3"/>
       <c r="S189" s="3"/>
@@ -56791,9 +56417,7 @@
       <c r="O190" s="3">
         <v>11370</v>
       </c>
-      <c r="P190" s="3">
-        <v>76</v>
-      </c>
+      <c r="P190" s="3"/>
       <c r="Q190" s="3"/>
       <c r="R190" s="3"/>
       <c r="S190" s="3"/>
@@ -56842,9 +56466,7 @@
       <c r="O191" s="3">
         <v>9550</v>
       </c>
-      <c r="P191" s="3">
-        <v>52</v>
-      </c>
+      <c r="P191" s="3"/>
       <c r="Q191" s="3"/>
       <c r="R191" s="3"/>
       <c r="S191" s="3"/>
@@ -56893,9 +56515,7 @@
       <c r="M192" s="3"/>
       <c r="N192" s="3"/>
       <c r="O192" s="3"/>
-      <c r="P192" s="3">
-        <v>58</v>
-      </c>
+      <c r="P192" s="3"/>
       <c r="Q192" s="3"/>
       <c r="R192" s="3"/>
       <c r="S192" s="3"/>
@@ -56944,9 +56564,7 @@
       <c r="O193" s="3">
         <v>3178</v>
       </c>
-      <c r="P193" s="3">
-        <v>58</v>
-      </c>
+      <c r="P193" s="3"/>
       <c r="Q193" s="3"/>
       <c r="R193" s="3"/>
       <c r="S193" s="3"/>
@@ -56995,9 +56613,7 @@
       <c r="O194" s="3">
         <v>6701</v>
       </c>
-      <c r="P194" s="3">
-        <v>68</v>
-      </c>
+      <c r="P194" s="3"/>
       <c r="Q194" s="3"/>
       <c r="R194" s="3"/>
       <c r="S194" s="3"/>
@@ -57050,9 +56666,7 @@
       <c r="O195" s="3">
         <v>12258</v>
       </c>
-      <c r="P195" s="3">
-        <v>74</v>
-      </c>
+      <c r="P195" s="3"/>
       <c r="Q195" s="3"/>
       <c r="R195" s="3"/>
       <c r="S195" s="3"/>
@@ -57099,9 +56713,7 @@
       <c r="M196" s="3"/>
       <c r="N196" s="3"/>
       <c r="O196" s="3"/>
-      <c r="P196" s="3">
-        <v>54</v>
-      </c>
+      <c r="P196" s="3"/>
       <c r="Q196" s="3"/>
       <c r="R196" s="3"/>
       <c r="S196" s="3"/>
@@ -57150,9 +56762,7 @@
       <c r="O197" s="3">
         <v>13581</v>
       </c>
-      <c r="P197" s="3">
-        <v>72</v>
-      </c>
+      <c r="P197" s="3"/>
       <c r="Q197" s="3"/>
       <c r="R197" s="3"/>
       <c r="S197" s="3"/>
@@ -57203,9 +56813,7 @@
       <c r="O198" s="3">
         <v>12485</v>
       </c>
-      <c r="P198" s="3">
-        <v>66</v>
-      </c>
+      <c r="P198" s="3"/>
       <c r="Q198" s="3"/>
       <c r="R198" s="3"/>
       <c r="S198" s="3"/>
@@ -57254,9 +56862,7 @@
       <c r="O199" s="3">
         <v>361</v>
       </c>
-      <c r="P199" s="3">
-        <v>60</v>
-      </c>
+      <c r="P199" s="3"/>
       <c r="Q199" s="3"/>
       <c r="R199" s="3"/>
       <c r="S199" s="3"/>
@@ -57305,9 +56911,7 @@
       <c r="O200" s="3">
         <v>6192</v>
       </c>
-      <c r="P200" s="3">
-        <v>66</v>
-      </c>
+      <c r="P200" s="3"/>
       <c r="Q200" s="3"/>
       <c r="R200" s="3"/>
       <c r="S200" s="3"/>
@@ -57360,9 +56964,7 @@
       <c r="O201" s="3">
         <v>105390</v>
       </c>
-      <c r="P201" s="3">
-        <v>748</v>
-      </c>
+      <c r="P201" s="3"/>
       <c r="Q201" s="3"/>
       <c r="R201" s="3"/>
       <c r="S201" s="3"/>
@@ -57413,9 +57015,7 @@
       <c r="O202" s="3">
         <v>5443</v>
       </c>
-      <c r="P202" s="3">
-        <v>58</v>
-      </c>
+      <c r="P202" s="3"/>
       <c r="Q202" s="3"/>
       <c r="R202" s="3"/>
       <c r="S202" s="3"/>
@@ -57466,9 +57066,7 @@
       <c r="O203" s="3">
         <v>7297</v>
       </c>
-      <c r="P203" s="3">
-        <v>66</v>
-      </c>
+      <c r="P203" s="3"/>
       <c r="Q203" s="3"/>
       <c r="R203" s="3"/>
       <c r="S203" s="3"/>
@@ -57521,9 +57119,7 @@
       <c r="O204" s="3">
         <v>29881</v>
       </c>
-      <c r="P204" s="3">
-        <v>90</v>
-      </c>
+      <c r="P204" s="3"/>
       <c r="Q204" s="3"/>
       <c r="R204" s="3"/>
       <c r="S204" s="3"/>
@@ -57572,9 +57168,7 @@
       <c r="O205" s="3">
         <v>13074</v>
       </c>
-      <c r="P205" s="3">
-        <v>66</v>
-      </c>
+      <c r="P205" s="3"/>
       <c r="Q205" s="3"/>
       <c r="R205" s="3"/>
       <c r="S205" s="3"/>
@@ -57625,9 +57219,7 @@
       <c r="O206" s="3">
         <v>7665</v>
       </c>
-      <c r="P206" s="3">
-        <v>56</v>
-      </c>
+      <c r="P206" s="3"/>
       <c r="Q206" s="3"/>
       <c r="R206" s="3"/>
       <c r="S206" s="3"/>
@@ -57678,9 +57270,7 @@
       <c r="O207" s="3">
         <v>2745</v>
       </c>
-      <c r="P207" s="3">
-        <v>54</v>
-      </c>
+      <c r="P207" s="3"/>
       <c r="Q207" s="3"/>
       <c r="R207" s="3"/>
       <c r="S207" s="3"/>
@@ -57729,9 +57319,7 @@
       <c r="O208" s="3">
         <v>2398</v>
       </c>
-      <c r="P208" s="3">
-        <v>66</v>
-      </c>
+      <c r="P208" s="3"/>
       <c r="Q208" s="3"/>
       <c r="R208" s="3"/>
       <c r="S208" s="3"/>
@@ -57780,9 +57368,7 @@
       <c r="O209" s="3">
         <v>8153</v>
       </c>
-      <c r="P209" s="3">
-        <v>48</v>
-      </c>
+      <c r="P209" s="3"/>
       <c r="Q209" s="3"/>
       <c r="R209" s="3"/>
       <c r="S209" s="3"/>
@@ -57831,9 +57417,7 @@
       <c r="O210" s="3">
         <v>1656</v>
       </c>
-      <c r="P210" s="3">
-        <v>54</v>
-      </c>
+      <c r="P210" s="3"/>
       <c r="Q210" s="3"/>
       <c r="R210" s="3"/>
       <c r="S210" s="3"/>
@@ -57882,9 +57466,7 @@
       <c r="O211" s="3">
         <v>6493</v>
       </c>
-      <c r="P211" s="3">
-        <v>56</v>
-      </c>
+      <c r="P211" s="3"/>
       <c r="Q211" s="3"/>
       <c r="R211" s="3"/>
       <c r="S211" s="3"/>
@@ -57933,9 +57515,7 @@
       <c r="O212" s="3">
         <v>12463</v>
       </c>
-      <c r="P212" s="3">
-        <v>62</v>
-      </c>
+      <c r="P212" s="3"/>
       <c r="Q212" s="3"/>
       <c r="R212" s="3"/>
       <c r="S212" s="3"/>
@@ -57986,9 +57566,7 @@
       <c r="O213" s="3">
         <v>8122</v>
       </c>
-      <c r="P213" s="3">
-        <v>72</v>
-      </c>
+      <c r="P213" s="3"/>
       <c r="Q213" s="3"/>
       <c r="R213" s="3"/>
       <c r="S213" s="3"/>
@@ -58041,9 +57619,7 @@
       <c r="O214" s="3">
         <v>60404</v>
       </c>
-      <c r="P214" s="3">
-        <v>500</v>
-      </c>
+      <c r="P214" s="3"/>
       <c r="Q214" s="3"/>
       <c r="R214" s="3"/>
       <c r="S214" s="3"/>
@@ -58094,9 +57670,7 @@
       <c r="O215" s="3">
         <v>6989</v>
       </c>
-      <c r="P215" s="3">
-        <v>58</v>
-      </c>
+      <c r="P215" s="3"/>
       <c r="Q215" s="3"/>
       <c r="R215" s="3"/>
       <c r="S215" s="3"/>
@@ -58149,9 +57723,7 @@
       <c r="O216" s="3">
         <v>5112</v>
       </c>
-      <c r="P216" s="3">
-        <v>66</v>
-      </c>
+      <c r="P216" s="3"/>
       <c r="Q216" s="3"/>
       <c r="R216" s="3"/>
       <c r="S216" s="3"/>
@@ -58202,9 +57774,7 @@
       <c r="O217" s="3">
         <v>4001</v>
       </c>
-      <c r="P217" s="3">
-        <v>74</v>
-      </c>
+      <c r="P217" s="3"/>
       <c r="Q217" s="3"/>
       <c r="R217" s="3"/>
       <c r="S217" s="3"/>
@@ -58253,9 +57823,7 @@
       <c r="O218" s="3">
         <v>16078</v>
       </c>
-      <c r="P218" s="3">
-        <v>60</v>
-      </c>
+      <c r="P218" s="3"/>
       <c r="Q218" s="3"/>
       <c r="R218" s="3"/>
       <c r="S218" s="3"/>
@@ -58304,9 +57872,7 @@
       <c r="O219" s="3">
         <v>2423</v>
       </c>
-      <c r="P219" s="3">
-        <v>54</v>
-      </c>
+      <c r="P219" s="3"/>
       <c r="Q219" s="3"/>
       <c r="R219" s="3"/>
       <c r="S219" s="3"/>
@@ -58357,9 +57923,7 @@
       <c r="O220" s="3">
         <v>13692</v>
       </c>
-      <c r="P220" s="3">
-        <v>72</v>
-      </c>
+      <c r="P220" s="3"/>
       <c r="Q220" s="3"/>
       <c r="R220" s="3"/>
       <c r="S220" s="3"/>
@@ -58406,9 +57970,7 @@
       <c r="M221" s="3"/>
       <c r="N221" s="3"/>
       <c r="O221" s="3"/>
-      <c r="P221" s="3">
-        <v>62</v>
-      </c>
+      <c r="P221" s="3"/>
       <c r="Q221" s="3"/>
       <c r="R221" s="3"/>
       <c r="S221" s="3"/>
@@ -58457,9 +58019,7 @@
       <c r="O222" s="3">
         <v>12109</v>
       </c>
-      <c r="P222" s="3">
-        <v>54</v>
-      </c>
+      <c r="P222" s="3"/>
       <c r="Q222" s="3"/>
       <c r="R222" s="3"/>
       <c r="S222" s="3"/>
@@ -58512,9 +58072,7 @@
       <c r="O223" s="3">
         <v>57180</v>
       </c>
-      <c r="P223" s="3">
-        <v>386</v>
-      </c>
+      <c r="P223" s="3"/>
       <c r="Q223" s="3"/>
       <c r="R223" s="3"/>
       <c r="S223" s="3"/>
@@ -58565,9 +58123,7 @@
       <c r="O224" s="3">
         <v>12369</v>
       </c>
-      <c r="P224" s="3">
-        <v>60</v>
-      </c>
+      <c r="P224" s="3"/>
       <c r="Q224" s="3"/>
       <c r="R224" s="3"/>
       <c r="S224" s="3"/>
@@ -58616,9 +58172,7 @@
       <c r="O225" s="3">
         <v>14203</v>
       </c>
-      <c r="P225" s="3">
-        <v>60</v>
-      </c>
+      <c r="P225" s="3"/>
       <c r="Q225" s="3"/>
       <c r="R225" s="3"/>
       <c r="S225" s="3"/>
@@ -58667,9 +58221,7 @@
       <c r="O226" s="3">
         <v>4062</v>
       </c>
-      <c r="P226" s="3">
-        <v>50</v>
-      </c>
+      <c r="P226" s="3"/>
       <c r="Q226" s="3"/>
       <c r="R226" s="3"/>
       <c r="S226" s="3"/>
@@ -58718,9 +58270,7 @@
       <c r="O227" s="3">
         <v>5332</v>
       </c>
-      <c r="P227" s="3">
-        <v>42</v>
-      </c>
+      <c r="P227" s="3"/>
       <c r="Q227" s="3"/>
       <c r="R227" s="3"/>
       <c r="S227" s="3"/>
@@ -58769,9 +58319,7 @@
       <c r="O228" s="3">
         <v>10243</v>
       </c>
-      <c r="P228" s="3">
-        <v>60</v>
-      </c>
+      <c r="P228" s="3"/>
       <c r="Q228" s="3"/>
       <c r="R228" s="3"/>
       <c r="S228" s="3"/>
@@ -58822,9 +58370,7 @@
       <c r="O229" s="3">
         <v>6065</v>
       </c>
-      <c r="P229" s="3">
-        <v>60</v>
-      </c>
+      <c r="P229" s="3"/>
       <c r="Q229" s="3"/>
       <c r="R229" s="3"/>
       <c r="S229" s="3"/>
@@ -58873,9 +58419,7 @@
       <c r="O230" s="3">
         <v>4906</v>
       </c>
-      <c r="P230" s="3">
-        <v>54</v>
-      </c>
+      <c r="P230" s="3"/>
       <c r="Q230" s="3"/>
       <c r="R230" s="3"/>
       <c r="S230" s="3"/>
@@ -58928,9 +58472,7 @@
       <c r="O231" s="3">
         <v>98551</v>
       </c>
-      <c r="P231" s="3">
-        <v>760</v>
-      </c>
+      <c r="P231" s="3"/>
       <c r="Q231" s="3"/>
       <c r="R231" s="3"/>
       <c r="S231" s="3"/>
@@ -58981,9 +58523,7 @@
       <c r="O232" s="3">
         <v>11293</v>
       </c>
-      <c r="P232" s="3">
-        <v>76</v>
-      </c>
+      <c r="P232" s="3"/>
       <c r="Q232" s="3"/>
       <c r="R232" s="3"/>
       <c r="S232" s="3"/>
@@ -59034,9 +58574,7 @@
       <c r="O233" s="3">
         <v>17439</v>
       </c>
-      <c r="P233" s="3">
-        <v>88</v>
-      </c>
+      <c r="P233" s="3"/>
       <c r="Q233" s="3"/>
       <c r="R233" s="3"/>
       <c r="S233" s="3"/>
@@ -59089,9 +58627,7 @@
       <c r="O234" s="3">
         <v>5721</v>
       </c>
-      <c r="P234" s="3">
-        <v>58</v>
-      </c>
+      <c r="P234" s="3"/>
       <c r="Q234" s="3"/>
       <c r="R234" s="3"/>
       <c r="S234" s="3"/>
@@ -59142,9 +58678,7 @@
       <c r="O235" s="3">
         <v>4144</v>
       </c>
-      <c r="P235" s="3">
-        <v>58</v>
-      </c>
+      <c r="P235" s="3"/>
       <c r="Q235" s="3"/>
       <c r="R235" s="3"/>
       <c r="S235" s="3"/>
@@ -59197,9 +58731,7 @@
       <c r="O236" s="3">
         <v>2721</v>
       </c>
-      <c r="P236" s="3">
-        <v>66</v>
-      </c>
+      <c r="P236" s="3"/>
       <c r="Q236" s="3"/>
       <c r="R236" s="3"/>
       <c r="S236" s="3"/>
@@ -59250,9 +58782,7 @@
       <c r="O237" s="3">
         <v>11755</v>
       </c>
-      <c r="P237" s="3">
-        <v>60</v>
-      </c>
+      <c r="P237" s="3"/>
       <c r="Q237" s="3"/>
       <c r="R237" s="3"/>
       <c r="S237" s="3"/>
@@ -59299,9 +58829,7 @@
       <c r="M238" s="3"/>
       <c r="N238" s="3"/>
       <c r="O238" s="3"/>
-      <c r="P238" s="3">
-        <v>54</v>
-      </c>
+      <c r="P238" s="3"/>
       <c r="Q238" s="3"/>
       <c r="R238" s="3"/>
       <c r="S238" s="3"/>
@@ -59352,9 +58880,7 @@
       <c r="O239" s="3">
         <v>14864</v>
       </c>
-      <c r="P239" s="3">
-        <v>72</v>
-      </c>
+      <c r="P239" s="3"/>
       <c r="Q239" s="3"/>
       <c r="R239" s="3"/>
       <c r="S239" s="3"/>
@@ -59401,9 +58927,7 @@
       <c r="M240" s="3"/>
       <c r="N240" s="3"/>
       <c r="O240" s="3"/>
-      <c r="P240" s="3">
-        <v>48</v>
-      </c>
+      <c r="P240" s="3"/>
       <c r="Q240" s="3"/>
       <c r="R240" s="3"/>
       <c r="S240" s="3"/>
@@ -59454,9 +58978,7 @@
       <c r="O241" s="3">
         <v>10683</v>
       </c>
-      <c r="P241" s="3">
-        <v>54</v>
-      </c>
+      <c r="P241" s="3"/>
       <c r="Q241" s="3"/>
       <c r="R241" s="3"/>
       <c r="S241" s="3"/>
@@ -59505,9 +59027,7 @@
       <c r="O242" s="3">
         <v>15130</v>
       </c>
-      <c r="P242" s="3">
-        <v>60</v>
-      </c>
+      <c r="P242" s="3"/>
       <c r="Q242" s="3"/>
       <c r="R242" s="3"/>
       <c r="S242" s="3"/>
@@ -59558,9 +59078,7 @@
       <c r="O243" s="3">
         <v>4801</v>
       </c>
-      <c r="P243" s="3">
-        <v>66</v>
-      </c>
+      <c r="P243" s="3"/>
       <c r="Q243" s="3"/>
       <c r="R243" s="3"/>
       <c r="S243" s="3"/>
@@ -59615,9 +59133,7 @@
       <c r="O244" s="3">
         <v>448703</v>
       </c>
-      <c r="P244" s="3">
-        <v>3542</v>
-      </c>
+      <c r="P244" s="3"/>
       <c r="Q244" s="3"/>
       <c r="R244" s="3"/>
       <c r="S244" s="3"/>
@@ -59670,9 +59186,7 @@
       <c r="O245" s="3">
         <v>111342</v>
       </c>
-      <c r="P245" s="3">
-        <v>1028</v>
-      </c>
+      <c r="P245" s="3"/>
       <c r="Q245" s="3"/>
       <c r="R245" s="3"/>
       <c r="S245" s="3"/>
@@ -59725,9 +59239,7 @@
       <c r="O246" s="3">
         <v>5485</v>
       </c>
-      <c r="P246" s="3">
-        <v>92</v>
-      </c>
+      <c r="P246" s="3"/>
       <c r="Q246" s="3"/>
       <c r="R246" s="3"/>
       <c r="S246" s="3"/>
@@ -59778,9 +59290,7 @@
       <c r="O247" s="3">
         <v>11584</v>
       </c>
-      <c r="P247" s="3">
-        <v>74</v>
-      </c>
+      <c r="P247" s="3"/>
       <c r="Q247" s="3"/>
       <c r="R247" s="3"/>
       <c r="S247" s="3"/>
@@ -59833,9 +59343,7 @@
       <c r="O248" s="3">
         <v>13479</v>
       </c>
-      <c r="P248" s="3">
-        <v>82</v>
-      </c>
+      <c r="P248" s="3"/>
       <c r="Q248" s="3"/>
       <c r="R248" s="3"/>
       <c r="S248" s="3"/>
@@ -59886,9 +59394,7 @@
       <c r="O249" s="3">
         <v>4704</v>
       </c>
-      <c r="P249" s="3">
-        <v>58</v>
-      </c>
+      <c r="P249" s="3"/>
       <c r="Q249" s="3"/>
       <c r="R249" s="3"/>
       <c r="S249" s="3"/>
@@ -59939,9 +59445,7 @@
       <c r="O250" s="3">
         <v>8197</v>
       </c>
-      <c r="P250" s="3">
-        <v>66</v>
-      </c>
+      <c r="P250" s="3"/>
       <c r="Q250" s="3"/>
       <c r="R250" s="3"/>
       <c r="S250" s="3"/>
@@ -59992,9 +59496,7 @@
       <c r="O251" s="3">
         <v>9666</v>
       </c>
-      <c r="P251" s="3">
-        <v>58</v>
-      </c>
+      <c r="P251" s="3"/>
       <c r="Q251" s="3"/>
       <c r="R251" s="3"/>
       <c r="S251" s="3"/>
@@ -60045,9 +59547,7 @@
       <c r="O252" s="3">
         <v>68</v>
       </c>
-      <c r="P252" s="3">
-        <v>64</v>
-      </c>
+      <c r="P252" s="3"/>
       <c r="Q252" s="3"/>
       <c r="R252" s="3"/>
       <c r="S252" s="3"/>
@@ -60098,9 +59598,7 @@
       <c r="O253" s="3">
         <v>2832</v>
       </c>
-      <c r="P253" s="3">
-        <v>54</v>
-      </c>
+      <c r="P253" s="3"/>
       <c r="Q253" s="3"/>
       <c r="R253" s="3"/>
       <c r="S253" s="3"/>
@@ -60151,9 +59649,7 @@
       <c r="O254" s="3">
         <v>8180</v>
       </c>
-      <c r="P254" s="3">
-        <v>72</v>
-      </c>
+      <c r="P254" s="3"/>
       <c r="Q254" s="3"/>
       <c r="R254" s="3"/>
       <c r="S254" s="3"/>
@@ -60206,9 +59702,7 @@
       <c r="O255" s="3">
         <v>7437</v>
       </c>
-      <c r="P255" s="3">
-        <v>70</v>
-      </c>
+      <c r="P255" s="3"/>
       <c r="Q255" s="3"/>
       <c r="R255" s="3"/>
       <c r="S255" s="3"/>
@@ -60257,9 +59751,7 @@
       <c r="M256" s="3"/>
       <c r="N256" s="3"/>
       <c r="O256" s="3"/>
-      <c r="P256" s="3">
-        <v>54</v>
-      </c>
+      <c r="P256" s="3"/>
       <c r="Q256" s="3"/>
       <c r="R256" s="3"/>
       <c r="S256" s="3"/>
@@ -60310,9 +59802,7 @@
       <c r="O257" s="3">
         <v>14337</v>
       </c>
-      <c r="P257" s="3">
-        <v>80</v>
-      </c>
+      <c r="P257" s="3"/>
       <c r="Q257" s="3"/>
       <c r="R257" s="3"/>
       <c r="S257" s="3"/>
@@ -60363,9 +59853,7 @@
       <c r="O258" s="3">
         <v>15742</v>
       </c>
-      <c r="P258" s="3">
-        <v>74</v>
-      </c>
+      <c r="P258" s="3"/>
       <c r="Q258" s="3"/>
       <c r="R258" s="3"/>
       <c r="S258" s="3"/>
@@ -60416,9 +59904,7 @@
       <c r="O259" s="3">
         <v>4200</v>
       </c>
-      <c r="P259" s="3">
-        <v>64</v>
-      </c>
+      <c r="P259" s="3"/>
       <c r="Q259" s="3"/>
       <c r="R259" s="3"/>
       <c r="S259" s="3"/>
@@ -60469,9 +59955,7 @@
       <c r="O260" s="3">
         <v>5431</v>
       </c>
-      <c r="P260" s="3">
-        <v>66</v>
-      </c>
+      <c r="P260" s="3"/>
       <c r="Q260" s="3"/>
       <c r="R260" s="3"/>
       <c r="S260" s="3"/>
@@ -60526,9 +60010,7 @@
       <c r="O261" s="3">
         <v>127449</v>
       </c>
-      <c r="P261" s="3">
-        <v>828</v>
-      </c>
+      <c r="P261" s="3"/>
       <c r="Q261" s="3"/>
       <c r="R261" s="3"/>
       <c r="S261" s="3"/>
@@ -60581,9 +60063,7 @@
       <c r="O262" s="3">
         <v>3405</v>
       </c>
-      <c r="P262" s="3">
-        <v>74</v>
-      </c>
+      <c r="P262" s="3"/>
       <c r="Q262" s="3"/>
       <c r="R262" s="3"/>
       <c r="S262" s="3"/>
@@ -60634,9 +60114,7 @@
       <c r="O263" s="3">
         <v>10243</v>
       </c>
-      <c r="P263" s="3">
-        <v>80</v>
-      </c>
+      <c r="P263" s="3"/>
       <c r="Q263" s="3"/>
       <c r="R263" s="3"/>
       <c r="S263" s="3"/>
@@ -60687,9 +60165,7 @@
       <c r="O264" s="3">
         <v>30429</v>
       </c>
-      <c r="P264" s="3">
-        <v>90</v>
-      </c>
+      <c r="P264" s="3"/>
       <c r="Q264" s="3"/>
       <c r="R264" s="3"/>
       <c r="S264" s="3"/>
@@ -60740,9 +60216,7 @@
       <c r="O265" s="3">
         <v>13064</v>
       </c>
-      <c r="P265" s="3">
-        <v>68</v>
-      </c>
+      <c r="P265" s="3"/>
       <c r="Q265" s="3"/>
       <c r="R265" s="3"/>
       <c r="S265" s="3"/>
@@ -60795,9 +60269,7 @@
       <c r="O266" s="3">
         <v>3211</v>
       </c>
-      <c r="P266" s="3">
-        <v>72</v>
-      </c>
+      <c r="P266" s="3"/>
       <c r="Q266" s="3"/>
       <c r="R266" s="3"/>
       <c r="S266" s="3"/>
@@ -60848,9 +60320,7 @@
       <c r="O267" s="3">
         <v>7876</v>
       </c>
-      <c r="P267" s="3">
-        <v>54</v>
-      </c>
+      <c r="P267" s="3"/>
       <c r="Q267" s="3"/>
       <c r="R267" s="3"/>
       <c r="S267" s="3"/>
@@ -60901,9 +60371,7 @@
       <c r="O268" s="3">
         <v>10950</v>
       </c>
-      <c r="P268" s="3">
-        <v>80</v>
-      </c>
+      <c r="P268" s="3"/>
       <c r="Q268" s="3"/>
       <c r="R268" s="3"/>
       <c r="S268" s="3"/>
@@ -60954,9 +60422,7 @@
       <c r="O269" s="3">
         <v>7036</v>
       </c>
-      <c r="P269" s="3">
-        <v>54</v>
-      </c>
+      <c r="P269" s="3"/>
       <c r="Q269" s="3"/>
       <c r="R269" s="3"/>
       <c r="S269" s="3"/>
@@ -61007,9 +60473,7 @@
       <c r="O270" s="3">
         <v>6845</v>
       </c>
-      <c r="P270" s="3">
-        <v>54</v>
-      </c>
+      <c r="P270" s="3"/>
       <c r="Q270" s="3"/>
       <c r="R270" s="3"/>
       <c r="S270" s="3"/>
@@ -61060,9 +60524,7 @@
       <c r="O271" s="3">
         <v>7796</v>
       </c>
-      <c r="P271" s="3">
-        <v>58</v>
-      </c>
+      <c r="P271" s="3"/>
       <c r="Q271" s="3"/>
       <c r="R271" s="3"/>
       <c r="S271" s="3"/>
@@ -61113,9 +60575,7 @@
       <c r="O272" s="3">
         <v>14125</v>
       </c>
-      <c r="P272" s="3">
-        <v>70</v>
-      </c>
+      <c r="P272" s="3"/>
       <c r="Q272" s="3"/>
       <c r="R272" s="3"/>
       <c r="S272" s="3"/>
@@ -61166,9 +60626,7 @@
       <c r="O273" s="3">
         <v>12469</v>
       </c>
-      <c r="P273" s="3">
-        <v>74</v>
-      </c>
+      <c r="P273" s="3"/>
       <c r="Q273" s="3"/>
       <c r="R273" s="3"/>
       <c r="S273" s="3"/>
@@ -61221,9 +60679,7 @@
       <c r="O274" s="3">
         <v>65010</v>
       </c>
-      <c r="P274" s="3">
-        <v>506</v>
-      </c>
+      <c r="P274" s="3"/>
       <c r="Q274" s="3"/>
       <c r="R274" s="3"/>
       <c r="S274" s="3"/>
@@ -61274,9 +60730,7 @@
       <c r="O275" s="3">
         <v>6364</v>
       </c>
-      <c r="P275" s="3">
-        <v>54</v>
-      </c>
+      <c r="P275" s="3"/>
       <c r="Q275" s="3"/>
       <c r="R275" s="3"/>
       <c r="S275" s="3"/>
@@ -61327,9 +60781,7 @@
       <c r="O276" s="3">
         <v>9567</v>
       </c>
-      <c r="P276" s="3">
-        <v>66</v>
-      </c>
+      <c r="P276" s="3"/>
       <c r="Q276" s="3"/>
       <c r="R276" s="3"/>
       <c r="S276" s="3"/>
@@ -61382,9 +60834,7 @@
       <c r="O277" s="3">
         <v>3305</v>
       </c>
-      <c r="P277" s="3">
-        <v>80</v>
-      </c>
+      <c r="P277" s="3"/>
       <c r="Q277" s="3"/>
       <c r="R277" s="3"/>
       <c r="S277" s="3"/>
@@ -61435,9 +60885,7 @@
       <c r="O278" s="3">
         <v>15344</v>
       </c>
-      <c r="P278" s="3">
-        <v>60</v>
-      </c>
+      <c r="P278" s="3"/>
       <c r="Q278" s="3"/>
       <c r="R278" s="3"/>
       <c r="S278" s="3"/>
@@ -61488,9 +60936,7 @@
       <c r="O279" s="3">
         <v>5303</v>
       </c>
-      <c r="P279" s="3">
-        <v>54</v>
-      </c>
+      <c r="P279" s="3"/>
       <c r="Q279" s="3"/>
       <c r="R279" s="3"/>
       <c r="S279" s="3"/>
@@ -61541,9 +60987,7 @@
       <c r="O280" s="3">
         <v>14189</v>
       </c>
-      <c r="P280" s="3">
-        <v>72</v>
-      </c>
+      <c r="P280" s="3"/>
       <c r="Q280" s="3"/>
       <c r="R280" s="3"/>
       <c r="S280" s="3"/>
@@ -61594,9 +61038,7 @@
       <c r="O281" s="3">
         <v>113</v>
       </c>
-      <c r="P281" s="3">
-        <v>62</v>
-      </c>
+      <c r="P281" s="3"/>
       <c r="Q281" s="3"/>
       <c r="R281" s="3"/>
       <c r="S281" s="3"/>
@@ -61647,9 +61089,7 @@
       <c r="O282" s="3">
         <v>10825</v>
       </c>
-      <c r="P282" s="3">
-        <v>58</v>
-      </c>
+      <c r="P282" s="3"/>
       <c r="Q282" s="3"/>
       <c r="R282" s="3"/>
       <c r="S282" s="3"/>
@@ -61702,9 +61142,7 @@
       <c r="O283" s="3">
         <v>52315</v>
       </c>
-      <c r="P283" s="3">
-        <v>392</v>
-      </c>
+      <c r="P283" s="3"/>
       <c r="Q283" s="3"/>
       <c r="R283" s="3"/>
       <c r="S283" s="3"/>
@@ -61755,9 +61193,7 @@
       <c r="O284" s="3">
         <v>10423</v>
       </c>
-      <c r="P284" s="3">
-        <v>66</v>
-      </c>
+      <c r="P284" s="3"/>
       <c r="Q284" s="3"/>
       <c r="R284" s="3"/>
       <c r="S284" s="3"/>
@@ -61808,9 +61244,7 @@
       <c r="O285" s="3">
         <v>13656</v>
       </c>
-      <c r="P285" s="3">
-        <v>60</v>
-      </c>
+      <c r="P285" s="3"/>
       <c r="Q285" s="3"/>
       <c r="R285" s="3"/>
       <c r="S285" s="3"/>
@@ -61861,9 +61295,7 @@
       <c r="O286" s="3">
         <v>3776</v>
       </c>
-      <c r="P286" s="3">
-        <v>50</v>
-      </c>
+      <c r="P286" s="3"/>
       <c r="Q286" s="3"/>
       <c r="R286" s="3"/>
       <c r="S286" s="3"/>
@@ -61914,9 +61346,7 @@
       <c r="O287" s="3">
         <v>5385</v>
       </c>
-      <c r="P287" s="3">
-        <v>42</v>
-      </c>
+      <c r="P287" s="3"/>
       <c r="Q287" s="3"/>
       <c r="R287" s="3"/>
       <c r="S287" s="3"/>
@@ -61967,9 +61397,7 @@
       <c r="O288" s="3">
         <v>8445</v>
       </c>
-      <c r="P288" s="3">
-        <v>60</v>
-      </c>
+      <c r="P288" s="3"/>
       <c r="Q288" s="3"/>
       <c r="R288" s="3"/>
       <c r="S288" s="3"/>
@@ -62022,9 +61450,7 @@
       <c r="O289" s="3">
         <v>6308</v>
       </c>
-      <c r="P289" s="3">
-        <v>60</v>
-      </c>
+      <c r="P289" s="3"/>
       <c r="Q289" s="3"/>
       <c r="R289" s="3"/>
       <c r="S289" s="3"/>
@@ -62075,9 +61501,7 @@
       <c r="O290" s="3">
         <v>4322</v>
       </c>
-      <c r="P290" s="3">
-        <v>54</v>
-      </c>
+      <c r="P290" s="3"/>
       <c r="Q290" s="3"/>
       <c r="R290" s="3"/>
       <c r="S290" s="3"/>
@@ -62130,9 +61554,7 @@
       <c r="O291" s="3">
         <v>92587</v>
       </c>
-      <c r="P291" s="3">
-        <v>788</v>
-      </c>
+      <c r="P291" s="3"/>
       <c r="Q291" s="3"/>
       <c r="R291" s="3"/>
       <c r="S291" s="3"/>
@@ -62183,9 +61605,7 @@
       <c r="O292" s="3">
         <v>9784</v>
       </c>
-      <c r="P292" s="3">
-        <v>82</v>
-      </c>
+      <c r="P292" s="3"/>
       <c r="Q292" s="3"/>
       <c r="R292" s="3"/>
       <c r="S292" s="3"/>
@@ -62236,9 +61656,7 @@
       <c r="O293" s="3">
         <v>12771</v>
       </c>
-      <c r="P293" s="3">
-        <v>96</v>
-      </c>
+      <c r="P293" s="3"/>
       <c r="Q293" s="3"/>
       <c r="R293" s="3"/>
       <c r="S293" s="3"/>
@@ -62291,9 +61709,7 @@
       <c r="O294" s="3">
         <v>8029</v>
       </c>
-      <c r="P294" s="3">
-        <v>58</v>
-      </c>
+      <c r="P294" s="3"/>
       <c r="Q294" s="3"/>
       <c r="R294" s="3"/>
       <c r="S294" s="3"/>
@@ -62346,9 +61762,7 @@
       <c r="O295" s="3">
         <v>669</v>
       </c>
-      <c r="P295" s="3">
-        <v>58</v>
-      </c>
+      <c r="P295" s="3"/>
       <c r="Q295" s="3"/>
       <c r="R295" s="3"/>
       <c r="S295" s="3"/>
@@ -62401,9 +61815,7 @@
       <c r="O296" s="3">
         <v>1118</v>
       </c>
-      <c r="P296" s="3">
-        <v>64</v>
-      </c>
+      <c r="P296" s="3"/>
       <c r="Q296" s="3"/>
       <c r="R296" s="3"/>
       <c r="S296" s="3"/>
@@ -62454,9 +61866,7 @@
       <c r="O297" s="3">
         <v>7605</v>
       </c>
-      <c r="P297" s="3">
-        <v>72</v>
-      </c>
+      <c r="P297" s="3"/>
       <c r="Q297" s="3"/>
       <c r="R297" s="3"/>
       <c r="S297" s="3"/>
@@ -62507,9 +61917,7 @@
       <c r="O298" s="3">
         <v>2905</v>
       </c>
-      <c r="P298" s="3">
-        <v>54</v>
-      </c>
+      <c r="P298" s="3"/>
       <c r="Q298" s="3"/>
       <c r="R298" s="3"/>
       <c r="S298" s="3"/>
@@ -62562,9 +61970,7 @@
       <c r="O299" s="3">
         <v>11825</v>
       </c>
-      <c r="P299" s="3">
-        <v>66</v>
-      </c>
+      <c r="P299" s="3"/>
       <c r="Q299" s="3"/>
       <c r="R299" s="3"/>
       <c r="S299" s="3"/>
@@ -62615,9 +62021,7 @@
       <c r="O300" s="3">
         <v>4934</v>
       </c>
-      <c r="P300" s="3">
-        <v>48</v>
-      </c>
+      <c r="P300" s="3"/>
       <c r="Q300" s="3"/>
       <c r="R300" s="3"/>
       <c r="S300" s="3"/>
@@ -62670,9 +62074,7 @@
       <c r="O301" s="3">
         <v>7919</v>
       </c>
-      <c r="P301" s="3">
-        <v>54</v>
-      </c>
+      <c r="P301" s="3"/>
       <c r="Q301" s="3"/>
       <c r="R301" s="3"/>
       <c r="S301" s="3"/>
@@ -62723,9 +62125,7 @@
       <c r="O302" s="3">
         <v>15765</v>
       </c>
-      <c r="P302" s="3">
-        <v>66</v>
-      </c>
+      <c r="P302" s="3"/>
       <c r="Q302" s="3"/>
       <c r="R302" s="3"/>
       <c r="S302" s="3"/>
@@ -62776,9 +62176,7 @@
       <c r="O303" s="3">
         <v>9263</v>
       </c>
-      <c r="P303" s="3">
-        <v>70</v>
-      </c>
+      <c r="P303" s="3"/>
       <c r="Q303" s="3"/>
       <c r="R303" s="3"/>
       <c r="S303" s="3"/>
@@ -62835,9 +62233,7 @@
       <c r="O304" s="3">
         <v>400038</v>
       </c>
-      <c r="P304" s="3">
-        <v>3418</v>
-      </c>
+      <c r="P304" s="3"/>
       <c r="Q304" s="3"/>
       <c r="R304" s="3"/>
       <c r="S304" s="3"/>
@@ -62894,9 +62290,7 @@
       <c r="O305" s="3">
         <v>113094</v>
       </c>
-      <c r="P305" s="3">
-        <v>1000</v>
-      </c>
+      <c r="P305" s="3"/>
       <c r="Q305" s="3"/>
       <c r="R305" s="3"/>
       <c r="S305" s="3"/>
@@ -62953,9 +62347,7 @@
       <c r="O306" s="3">
         <v>6283</v>
       </c>
-      <c r="P306" s="3">
-        <v>82</v>
-      </c>
+      <c r="P306" s="3"/>
       <c r="Q306" s="3"/>
       <c r="R306" s="3"/>
       <c r="S306" s="3"/>
@@ -63010,9 +62402,7 @@
       <c r="O307" s="3">
         <v>18428</v>
       </c>
-      <c r="P307" s="3">
-        <v>84</v>
-      </c>
+      <c r="P307" s="3"/>
       <c r="Q307" s="3"/>
       <c r="R307" s="3"/>
       <c r="S307" s="3"/>
@@ -63069,9 +62459,7 @@
       <c r="O308" s="3">
         <v>17995</v>
       </c>
-      <c r="P308" s="3">
-        <v>90</v>
-      </c>
+      <c r="P308" s="3"/>
       <c r="Q308" s="3"/>
       <c r="R308" s="3"/>
       <c r="S308" s="3"/>
@@ -63126,9 +62514,7 @@
       <c r="O309" s="3">
         <v>2606</v>
       </c>
-      <c r="P309" s="3">
-        <v>58</v>
-      </c>
+      <c r="P309" s="3"/>
       <c r="Q309" s="3"/>
       <c r="R309" s="3"/>
       <c r="S309" s="3"/>
@@ -63183,9 +62569,7 @@
       <c r="O310" s="3">
         <v>5731</v>
       </c>
-      <c r="P310" s="3">
-        <v>68</v>
-      </c>
+      <c r="P310" s="3"/>
       <c r="Q310" s="3"/>
       <c r="R310" s="3"/>
       <c r="S310" s="3"/>
@@ -63240,9 +62624,7 @@
       <c r="O311" s="3">
         <v>9239</v>
       </c>
-      <c r="P311" s="3">
-        <v>54</v>
-      </c>
+      <c r="P311" s="3"/>
       <c r="Q311" s="3"/>
       <c r="R311" s="3"/>
       <c r="S311" s="3"/>
@@ -63293,9 +62675,7 @@
       <c r="O312" s="3">
         <v>6173</v>
       </c>
-      <c r="P312" s="3">
-        <v>60</v>
-      </c>
+      <c r="P312" s="3"/>
       <c r="Q312" s="3"/>
       <c r="R312" s="3"/>
       <c r="S312" s="3"/>
@@ -63346,9 +62726,7 @@
       <c r="O313" s="3">
         <v>3324</v>
       </c>
-      <c r="P313" s="3">
-        <v>52</v>
-      </c>
+      <c r="P313" s="3"/>
       <c r="Q313" s="3"/>
       <c r="R313" s="3"/>
       <c r="S313" s="3"/>
@@ -63403,9 +62781,7 @@
       <c r="O314" s="3">
         <v>5364</v>
       </c>
-      <c r="P314" s="3">
-        <v>52</v>
-      </c>
+      <c r="P314" s="3"/>
       <c r="Q314" s="3"/>
       <c r="R314" s="3"/>
       <c r="S314" s="3"/>
@@ -63462,9 +62838,7 @@
       <c r="O315" s="3">
         <v>8661</v>
       </c>
-      <c r="P315" s="3">
-        <v>66</v>
-      </c>
+      <c r="P315" s="3"/>
       <c r="Q315" s="3"/>
       <c r="R315" s="3"/>
       <c r="S315" s="3"/>
@@ -63519,9 +62893,7 @@
       <c r="O316" s="3">
         <v>3671</v>
       </c>
-      <c r="P316" s="3">
-        <v>58</v>
-      </c>
+      <c r="P316" s="3"/>
       <c r="Q316" s="3"/>
       <c r="R316" s="3"/>
       <c r="S316" s="3"/>
@@ -63576,9 +62948,7 @@
       <c r="O317" s="3">
         <v>9380</v>
       </c>
-      <c r="P317" s="3">
-        <v>78</v>
-      </c>
+      <c r="P317" s="3"/>
       <c r="Q317" s="3"/>
       <c r="R317" s="3"/>
       <c r="S317" s="3"/>
@@ -63633,9 +63003,7 @@
       <c r="O318" s="3">
         <v>9576</v>
       </c>
-      <c r="P318" s="3">
-        <v>74</v>
-      </c>
+      <c r="P318" s="3"/>
       <c r="Q318" s="3"/>
       <c r="R318" s="3"/>
       <c r="S318" s="3"/>
@@ -63690,9 +63058,7 @@
       <c r="O319" s="3">
         <v>2186</v>
       </c>
-      <c r="P319" s="3">
-        <v>58</v>
-      </c>
+      <c r="P319" s="3"/>
       <c r="Q319" s="3"/>
       <c r="R319" s="3"/>
       <c r="S319" s="3"/>
@@ -63747,9 +63113,7 @@
       <c r="O320" s="3">
         <v>4477</v>
       </c>
-      <c r="P320" s="3">
-        <v>66</v>
-      </c>
+      <c r="P320" s="3"/>
       <c r="Q320" s="3"/>
       <c r="R320" s="3"/>
       <c r="S320" s="3"/>
@@ -63806,9 +63170,7 @@
       <c r="O321" s="3">
         <v>100685</v>
       </c>
-      <c r="P321" s="3">
-        <v>742</v>
-      </c>
+      <c r="P321" s="3"/>
       <c r="Q321" s="3"/>
       <c r="R321" s="3"/>
       <c r="S321" s="3"/>
@@ -63863,9 +63225,7 @@
       <c r="O322" s="3">
         <v>11077</v>
       </c>
-      <c r="P322" s="3">
-        <v>86</v>
-      </c>
+      <c r="P322" s="3"/>
       <c r="Q322" s="3"/>
       <c r="R322" s="3"/>
       <c r="S322" s="3"/>
@@ -63920,9 +63280,7 @@
       <c r="O323" s="3">
         <v>24207</v>
       </c>
-      <c r="P323" s="3">
-        <v>90</v>
-      </c>
+      <c r="P323" s="3"/>
       <c r="Q323" s="3"/>
       <c r="R323" s="3"/>
       <c r="S323" s="3"/>
@@ -63975,9 +63333,7 @@
       <c r="O324" s="3">
         <v>12066</v>
       </c>
-      <c r="P324" s="3">
-        <v>52</v>
-      </c>
+      <c r="P324" s="3"/>
       <c r="Q324" s="3"/>
       <c r="R324" s="3"/>
       <c r="S324" s="3"/>
@@ -64034,9 +63390,7 @@
       <c r="O325" s="3">
         <v>4556</v>
       </c>
-      <c r="P325" s="3">
-        <v>72</v>
-      </c>
+      <c r="P325" s="3"/>
       <c r="Q325" s="3"/>
       <c r="R325" s="3"/>
       <c r="S325" s="3"/>
@@ -64091,9 +63445,7 @@
       <c r="O326" s="3">
         <v>4433</v>
       </c>
-      <c r="P326" s="3">
-        <v>54</v>
-      </c>
+      <c r="P326" s="3"/>
       <c r="Q326" s="3"/>
       <c r="R326" s="3"/>
       <c r="S326" s="3"/>
@@ -64146,9 +63498,7 @@
       <c r="O327" s="3">
         <v>10751</v>
       </c>
-      <c r="P327" s="3">
-        <v>76</v>
-      </c>
+      <c r="P327" s="3"/>
       <c r="Q327" s="3"/>
       <c r="R327" s="3"/>
       <c r="S327" s="3"/>
@@ -64201,9 +63551,7 @@
       <c r="O328" s="3">
         <v>4528</v>
       </c>
-      <c r="P328" s="3">
-        <v>56</v>
-      </c>
+      <c r="P328" s="3"/>
       <c r="Q328" s="3"/>
       <c r="R328" s="3"/>
       <c r="S328" s="3"/>
@@ -64258,9 +63606,7 @@
       <c r="O329" s="3">
         <v>4485</v>
       </c>
-      <c r="P329" s="3">
-        <v>54</v>
-      </c>
+      <c r="P329" s="3"/>
       <c r="Q329" s="3"/>
       <c r="R329" s="3"/>
       <c r="S329" s="3"/>
@@ -64315,9 +63661,7 @@
       <c r="O330" s="3">
         <v>6700</v>
       </c>
-      <c r="P330" s="3">
-        <v>58</v>
-      </c>
+      <c r="P330" s="3"/>
       <c r="Q330" s="3"/>
       <c r="R330" s="3"/>
       <c r="S330" s="3"/>
@@ -64370,9 +63714,7 @@
       <c r="O331" s="3">
         <v>7793</v>
       </c>
-      <c r="P331" s="3">
-        <v>64</v>
-      </c>
+      <c r="P331" s="3"/>
       <c r="Q331" s="3"/>
       <c r="R331" s="3"/>
       <c r="S331" s="3"/>
@@ -64427,9 +63769,7 @@
       <c r="O332" s="3">
         <v>10089</v>
       </c>
-      <c r="P332" s="3">
-        <v>80</v>
-      </c>
+      <c r="P332" s="3"/>
       <c r="Q332" s="3"/>
       <c r="R332" s="3"/>
       <c r="S332" s="3"/>
@@ -64484,9 +63824,7 @@
       <c r="O333" s="3">
         <v>61508</v>
       </c>
-      <c r="P333" s="3">
-        <v>496</v>
-      </c>
+      <c r="P333" s="3"/>
       <c r="Q333" s="3"/>
       <c r="R333" s="3"/>
       <c r="S333" s="3"/>
@@ -64541,9 +63879,7 @@
       <c r="O334" s="3">
         <v>4077</v>
       </c>
-      <c r="P334" s="3">
-        <v>54</v>
-      </c>
+      <c r="P334" s="3"/>
       <c r="Q334" s="3"/>
       <c r="R334" s="3"/>
       <c r="S334" s="3"/>
@@ -64598,9 +63934,7 @@
       <c r="O335" s="3">
         <v>7937</v>
       </c>
-      <c r="P335" s="3">
-        <v>66</v>
-      </c>
+      <c r="P335" s="3"/>
       <c r="Q335" s="3"/>
       <c r="R335" s="3"/>
       <c r="S335" s="3"/>
@@ -64655,9 +63989,7 @@
       <c r="O336" s="3">
         <v>3006</v>
       </c>
-      <c r="P336" s="3">
-        <v>72</v>
-      </c>
+      <c r="P336" s="3"/>
       <c r="Q336" s="3"/>
       <c r="R336" s="3"/>
       <c r="S336" s="3"/>
@@ -64712,9 +64044,7 @@
       <c r="O337" s="3">
         <v>11660</v>
       </c>
-      <c r="P337" s="3">
-        <v>60</v>
-      </c>
+      <c r="P337" s="3"/>
       <c r="Q337" s="3"/>
       <c r="R337" s="3"/>
       <c r="S337" s="3"/>
@@ -64767,9 +64097,7 @@
       <c r="O338" s="3">
         <v>6822</v>
       </c>
-      <c r="P338" s="3">
-        <v>54</v>
-      </c>
+      <c r="P338" s="3"/>
       <c r="Q338" s="3"/>
       <c r="R338" s="3"/>
       <c r="S338" s="3"/>
@@ -64822,9 +64150,7 @@
       <c r="O339" s="3">
         <v>12514</v>
       </c>
-      <c r="P339" s="3">
-        <v>72</v>
-      </c>
+      <c r="P339" s="3"/>
       <c r="Q339" s="3"/>
       <c r="R339" s="3"/>
       <c r="S339" s="3"/>
@@ -64875,9 +64201,7 @@
       <c r="O340" s="3">
         <v>9210</v>
       </c>
-      <c r="P340" s="3">
-        <v>62</v>
-      </c>
+      <c r="P340" s="3"/>
       <c r="Q340" s="3"/>
       <c r="R340" s="3"/>
       <c r="S340" s="3"/>
@@ -64932,9 +64256,7 @@
       <c r="O341" s="3">
         <v>6282</v>
       </c>
-      <c r="P341" s="3">
-        <v>56</v>
-      </c>
+      <c r="P341" s="3"/>
       <c r="Q341" s="3"/>
       <c r="R341" s="3"/>
       <c r="S341" s="3"/>
@@ -64989,9 +64311,7 @@
       <c r="O342" s="3">
         <v>43242</v>
       </c>
-      <c r="P342" s="3">
-        <v>398</v>
-      </c>
+      <c r="P342" s="3"/>
       <c r="Q342" s="3"/>
       <c r="R342" s="3"/>
       <c r="S342" s="3"/>
@@ -65044,9 +64364,7 @@
       <c r="O343" s="3">
         <v>13781</v>
       </c>
-      <c r="P343" s="3">
-        <v>66</v>
-      </c>
+      <c r="P343" s="3"/>
       <c r="Q343" s="3"/>
       <c r="R343" s="3"/>
       <c r="S343" s="3"/>
@@ -65099,9 +64417,7 @@
       <c r="O344" s="3">
         <v>9308</v>
       </c>
-      <c r="P344" s="3">
-        <v>60</v>
-      </c>
+      <c r="P344" s="3"/>
       <c r="Q344" s="3"/>
       <c r="R344" s="3"/>
       <c r="S344" s="3"/>
@@ -65156,9 +64472,7 @@
       <c r="O345" s="3">
         <v>2350</v>
       </c>
-      <c r="P345" s="3">
-        <v>50</v>
-      </c>
+      <c r="P345" s="3"/>
       <c r="Q345" s="3"/>
       <c r="R345" s="3"/>
       <c r="S345" s="3"/>
@@ -65209,9 +64523,7 @@
       <c r="O346" s="3">
         <v>4601</v>
       </c>
-      <c r="P346" s="3">
-        <v>42</v>
-      </c>
+      <c r="P346" s="3"/>
       <c r="Q346" s="3"/>
       <c r="R346" s="3"/>
       <c r="S346" s="3"/>
@@ -65264,9 +64576,7 @@
       <c r="O347" s="3">
         <v>6022</v>
       </c>
-      <c r="P347" s="3">
-        <v>60</v>
-      </c>
+      <c r="P347" s="3"/>
       <c r="Q347" s="3"/>
       <c r="R347" s="3"/>
       <c r="S347" s="3"/>
@@ -65321,9 +64631,7 @@
       <c r="O348" s="3">
         <v>4369</v>
       </c>
-      <c r="P348" s="3">
-        <v>60</v>
-      </c>
+      <c r="P348" s="3"/>
       <c r="Q348" s="3"/>
       <c r="R348" s="3"/>
       <c r="S348" s="3"/>
@@ -65378,9 +64686,7 @@
       <c r="O349" s="3">
         <v>2811</v>
       </c>
-      <c r="P349" s="3">
-        <v>60</v>
-      </c>
+      <c r="P349" s="3"/>
       <c r="Q349" s="3"/>
       <c r="R349" s="3"/>
       <c r="S349" s="3"/>
@@ -65435,9 +64741,7 @@
       <c r="O350" s="3">
         <v>81509</v>
       </c>
-      <c r="P350" s="3">
-        <v>782</v>
-      </c>
+      <c r="P350" s="3"/>
       <c r="Q350" s="3"/>
       <c r="R350" s="3"/>
       <c r="S350" s="3"/>
@@ -65492,9 +64796,7 @@
       <c r="O351" s="3">
         <v>11598</v>
       </c>
-      <c r="P351" s="3">
-        <v>84</v>
-      </c>
+      <c r="P351" s="3"/>
       <c r="Q351" s="3"/>
       <c r="R351" s="3"/>
       <c r="S351" s="3"/>
@@ -65549,9 +64851,7 @@
       <c r="O352" s="3">
         <v>8516</v>
       </c>
-      <c r="P352" s="3">
-        <v>94</v>
-      </c>
+      <c r="P352" s="3"/>
       <c r="Q352" s="3"/>
       <c r="R352" s="3"/>
       <c r="S352" s="3"/>
@@ -65606,9 +64906,7 @@
       <c r="O353" s="3">
         <v>8692</v>
       </c>
-      <c r="P353" s="3">
-        <v>62</v>
-      </c>
+      <c r="P353" s="3"/>
       <c r="Q353" s="3"/>
       <c r="R353" s="3"/>
       <c r="S353" s="3"/>
@@ -65663,9 +64961,7 @@
       <c r="O354" s="3">
         <v>2853</v>
       </c>
-      <c r="P354" s="3">
-        <v>58</v>
-      </c>
+      <c r="P354" s="3"/>
       <c r="Q354" s="3"/>
       <c r="R354" s="3"/>
       <c r="S354" s="3"/>
@@ -65720,9 +65016,7 @@
       <c r="O355" s="3">
         <v>2084</v>
       </c>
-      <c r="P355" s="3">
-        <v>60</v>
-      </c>
+      <c r="P355" s="3"/>
       <c r="Q355" s="3"/>
       <c r="R355" s="3"/>
       <c r="S355" s="3"/>
@@ -65777,9 +65071,7 @@
       <c r="O356" s="3">
         <v>4033</v>
       </c>
-      <c r="P356" s="3">
-        <v>66</v>
-      </c>
+      <c r="P356" s="3"/>
       <c r="Q356" s="3"/>
       <c r="R356" s="3"/>
       <c r="S356" s="3"/>
@@ -65832,9 +65124,7 @@
       <c r="O357" s="3">
         <v>3454</v>
       </c>
-      <c r="P357" s="3">
-        <v>54</v>
-      </c>
+      <c r="P357" s="3"/>
       <c r="Q357" s="3"/>
       <c r="R357" s="3"/>
       <c r="S357" s="3"/>
@@ -65889,9 +65179,7 @@
       <c r="O358" s="3">
         <v>8576</v>
       </c>
-      <c r="P358" s="3">
-        <v>66</v>
-      </c>
+      <c r="P358" s="3"/>
       <c r="Q358" s="3"/>
       <c r="R358" s="3"/>
       <c r="S358" s="3"/>
@@ -65942,9 +65230,7 @@
       <c r="O359" s="3">
         <v>5191</v>
       </c>
-      <c r="P359" s="3">
-        <v>48</v>
-      </c>
+      <c r="P359" s="3"/>
       <c r="Q359" s="3"/>
       <c r="R359" s="3"/>
       <c r="S359" s="3"/>
@@ -65997,9 +65283,7 @@
       <c r="O360" s="3">
         <v>6194</v>
       </c>
-      <c r="P360" s="3">
-        <v>54</v>
-      </c>
+      <c r="P360" s="3"/>
       <c r="Q360" s="3"/>
       <c r="R360" s="3"/>
       <c r="S360" s="3"/>
@@ -66054,9 +65338,7 @@
       <c r="O361" s="3">
         <v>10529</v>
       </c>
-      <c r="P361" s="3">
-        <v>66</v>
-      </c>
+      <c r="P361" s="3"/>
       <c r="Q361" s="3"/>
       <c r="R361" s="3"/>
       <c r="S361" s="3"/>
@@ -66109,9 +65391,7 @@
       <c r="O362" s="3">
         <v>9789</v>
       </c>
-      <c r="P362" s="3">
-        <v>70</v>
-      </c>
+      <c r="P362" s="3"/>
       <c r="Q362" s="3"/>
       <c r="R362" s="3"/>
       <c r="S362" s="3"/>
@@ -66168,9 +65448,7 @@
       <c r="O363" s="3">
         <v>487872</v>
       </c>
-      <c r="P363" s="3">
-        <v>3542</v>
-      </c>
+      <c r="P363" s="3"/>
       <c r="Q363" s="3"/>
       <c r="R363" s="3"/>
       <c r="S363" s="3"/>
@@ -66227,9 +65505,7 @@
       <c r="O364" s="3">
         <v>129797</v>
       </c>
-      <c r="P364" s="3">
-        <v>1066</v>
-      </c>
+      <c r="P364" s="3"/>
       <c r="Q364" s="3"/>
       <c r="R364" s="3"/>
       <c r="S364" s="3"/>
@@ -66286,9 +65562,7 @@
       <c r="O365" s="3">
         <v>17378</v>
       </c>
-      <c r="P365" s="3">
-        <v>90</v>
-      </c>
+      <c r="P365" s="3"/>
       <c r="Q365" s="3"/>
       <c r="R365" s="3"/>
       <c r="S365" s="3"/>
@@ -66341,9 +65615,7 @@
       <c r="O366" s="3">
         <v>16845</v>
       </c>
-      <c r="P366" s="3">
-        <v>102</v>
-      </c>
+      <c r="P366" s="3"/>
       <c r="Q366" s="3"/>
       <c r="R366" s="3"/>
       <c r="S366" s="3"/>
@@ -66398,9 +65670,7 @@
       <c r="O367" s="3">
         <v>17467</v>
       </c>
-      <c r="P367" s="3">
-        <v>86</v>
-      </c>
+      <c r="P367" s="3"/>
       <c r="Q367" s="3"/>
       <c r="R367" s="3"/>
       <c r="S367" s="3"/>
@@ -66453,9 +65723,7 @@
       <c r="O368" s="3">
         <v>5370</v>
       </c>
-      <c r="P368" s="3">
-        <v>58</v>
-      </c>
+      <c r="P368" s="3"/>
       <c r="Q368" s="3"/>
       <c r="R368" s="3"/>
       <c r="S368" s="3"/>
@@ -66508,9 +65776,7 @@
       <c r="O369" s="3">
         <v>3624</v>
       </c>
-      <c r="P369" s="3">
-        <v>76</v>
-      </c>
+      <c r="P369" s="3"/>
       <c r="Q369" s="3"/>
       <c r="R369" s="3"/>
       <c r="S369" s="3"/>
@@ -66563,9 +65829,7 @@
       <c r="O370" s="3">
         <v>9292</v>
       </c>
-      <c r="P370" s="3">
-        <v>54</v>
-      </c>
+      <c r="P370" s="3"/>
       <c r="Q370" s="3"/>
       <c r="R370" s="3"/>
       <c r="S370" s="3"/>
@@ -66618,9 +65882,7 @@
       <c r="O371" s="3">
         <v>3479</v>
       </c>
-      <c r="P371" s="3">
-        <v>58</v>
-      </c>
+      <c r="P371" s="3"/>
       <c r="Q371" s="3"/>
       <c r="R371" s="3"/>
       <c r="S371" s="3"/>
@@ -66673,9 +65935,7 @@
       <c r="O372" s="3">
         <v>3750</v>
       </c>
-      <c r="P372" s="3">
-        <v>58</v>
-      </c>
+      <c r="P372" s="3"/>
       <c r="Q372" s="3"/>
       <c r="R372" s="3"/>
       <c r="S372" s="3"/>
@@ -66728,9 +65988,7 @@
       <c r="O373" s="3">
         <v>4826</v>
       </c>
-      <c r="P373" s="3">
-        <v>52</v>
-      </c>
+      <c r="P373" s="3"/>
       <c r="Q373" s="3"/>
       <c r="R373" s="3"/>
       <c r="S373" s="3"/>
@@ -66783,9 +66041,7 @@
       <c r="O374" s="3">
         <v>9089</v>
       </c>
-      <c r="P374" s="3">
-        <v>80</v>
-      </c>
+      <c r="P374" s="3"/>
       <c r="Q374" s="3"/>
       <c r="R374" s="3"/>
       <c r="S374" s="3"/>
@@ -66838,9 +66094,7 @@
       <c r="O375" s="3">
         <v>5901</v>
       </c>
-      <c r="P375" s="3">
-        <v>60</v>
-      </c>
+      <c r="P375" s="3"/>
       <c r="Q375" s="3"/>
       <c r="R375" s="3"/>
       <c r="S375" s="3"/>
@@ -66895,9 +66149,7 @@
       <c r="O376" s="3">
         <v>9637</v>
       </c>
-      <c r="P376" s="3">
-        <v>86</v>
-      </c>
+      <c r="P376" s="3"/>
       <c r="Q376" s="3"/>
       <c r="R376" s="3"/>
       <c r="S376" s="3"/>
@@ -66950,9 +66202,7 @@
       <c r="O377" s="3">
         <v>12174</v>
       </c>
-      <c r="P377" s="3">
-        <v>76</v>
-      </c>
+      <c r="P377" s="3"/>
       <c r="Q377" s="3"/>
       <c r="R377" s="3"/>
       <c r="S377" s="3"/>
@@ -67007,9 +66257,7 @@
       <c r="O378" s="3">
         <v>4388</v>
       </c>
-      <c r="P378" s="3">
-        <v>64</v>
-      </c>
+      <c r="P378" s="3"/>
       <c r="Q378" s="3"/>
       <c r="R378" s="3"/>
       <c r="S378" s="3"/>
@@ -67062,9 +66310,7 @@
       <c r="O379" s="3">
         <v>6577</v>
       </c>
-      <c r="P379" s="3">
-        <v>66</v>
-      </c>
+      <c r="P379" s="3"/>
       <c r="Q379" s="3"/>
       <c r="R379" s="3"/>
       <c r="S379" s="3"/>
@@ -67119,9 +66365,7 @@
       <c r="O380" s="3">
         <v>133658</v>
       </c>
-      <c r="P380" s="3">
-        <v>750</v>
-      </c>
+      <c r="P380" s="3"/>
       <c r="Q380" s="3"/>
       <c r="R380" s="3"/>
       <c r="S380" s="3"/>
@@ -67176,9 +66420,7 @@
       <c r="O381" s="3">
         <v>22067</v>
       </c>
-      <c r="P381" s="3">
-        <v>66</v>
-      </c>
+      <c r="P381" s="3"/>
       <c r="Q381" s="3"/>
       <c r="R381" s="3"/>
       <c r="S381" s="3"/>
@@ -67231,9 +66473,7 @@
       <c r="O382" s="3">
         <v>51250</v>
       </c>
-      <c r="P382" s="3">
-        <v>90</v>
-      </c>
+      <c r="P382" s="3"/>
       <c r="Q382" s="3"/>
       <c r="R382" s="3"/>
       <c r="S382" s="3"/>
@@ -67286,9 +66526,7 @@
       <c r="O383" s="3">
         <v>9016</v>
       </c>
-      <c r="P383" s="3">
-        <v>52</v>
-      </c>
+      <c r="P383" s="3"/>
       <c r="Q383" s="3"/>
       <c r="R383" s="3"/>
       <c r="S383" s="3"/>
@@ -67343,9 +66581,7 @@
       <c r="O384" s="3">
         <v>8473</v>
       </c>
-      <c r="P384" s="3">
-        <v>72</v>
-      </c>
+      <c r="P384" s="3"/>
       <c r="Q384" s="3"/>
       <c r="R384" s="3"/>
       <c r="S384" s="3"/>
@@ -67400,9 +66636,7 @@
       <c r="O385" s="3">
         <v>5124</v>
       </c>
-      <c r="P385" s="3">
-        <v>62</v>
-      </c>
+      <c r="P385" s="3"/>
       <c r="Q385" s="3"/>
       <c r="R385" s="3"/>
       <c r="S385" s="3"/>
@@ -67457,9 +66691,7 @@
       <c r="O386" s="3">
         <v>6801</v>
       </c>
-      <c r="P386" s="3">
-        <v>80</v>
-      </c>
+      <c r="P386" s="3"/>
       <c r="Q386" s="3"/>
       <c r="R386" s="3"/>
       <c r="S386" s="3"/>
@@ -67512,9 +66744,7 @@
       <c r="O387" s="3">
         <v>5055</v>
       </c>
-      <c r="P387" s="3">
-        <v>54</v>
-      </c>
+      <c r="P387" s="3"/>
       <c r="Q387" s="3"/>
       <c r="R387" s="3"/>
       <c r="S387" s="3"/>
@@ -67567,9 +66797,7 @@
       <c r="O388" s="3">
         <v>4866</v>
       </c>
-      <c r="P388" s="3">
-        <v>54</v>
-      </c>
+      <c r="P388" s="3"/>
       <c r="Q388" s="3"/>
       <c r="R388" s="3"/>
       <c r="S388" s="3"/>
@@ -67622,9 +66850,7 @@
       <c r="O389" s="3">
         <v>6950</v>
       </c>
-      <c r="P389" s="3">
-        <v>64</v>
-      </c>
+      <c r="P389" s="3"/>
       <c r="Q389" s="3"/>
       <c r="R389" s="3"/>
       <c r="S389" s="3"/>
@@ -67677,9 +66903,7 @@
       <c r="O390" s="3">
         <v>7033</v>
       </c>
-      <c r="P390" s="3">
-        <v>70</v>
-      </c>
+      <c r="P390" s="3"/>
       <c r="Q390" s="3"/>
       <c r="R390" s="3"/>
       <c r="S390" s="3"/>
@@ -67734,9 +66958,7 @@
       <c r="O391" s="3">
         <v>7023</v>
       </c>
-      <c r="P391" s="3">
-        <v>86</v>
-      </c>
+      <c r="P391" s="3"/>
       <c r="Q391" s="3"/>
       <c r="R391" s="3"/>
       <c r="S391" s="3"/>
@@ -67791,9 +67013,7 @@
       <c r="O392" s="3">
         <v>70420</v>
       </c>
-      <c r="P392" s="3">
-        <v>532</v>
-      </c>
+      <c r="P392" s="3"/>
       <c r="Q392" s="3"/>
       <c r="R392" s="3"/>
       <c r="S392" s="3"/>
@@ -67846,9 +67066,7 @@
       <c r="O393" s="3">
         <v>3688</v>
       </c>
-      <c r="P393" s="3">
-        <v>58</v>
-      </c>
+      <c r="P393" s="3"/>
       <c r="Q393" s="3"/>
       <c r="R393" s="3"/>
       <c r="S393" s="3"/>
@@ -67901,9 +67119,7 @@
       <c r="O394" s="3">
         <v>7039</v>
       </c>
-      <c r="P394" s="3">
-        <v>88</v>
-      </c>
+      <c r="P394" s="3"/>
       <c r="Q394" s="3"/>
       <c r="R394" s="3"/>
       <c r="S394" s="3"/>
@@ -67958,9 +67174,7 @@
       <c r="O395" s="3">
         <v>11023</v>
       </c>
-      <c r="P395" s="3">
-        <v>66</v>
-      </c>
+      <c r="P395" s="3"/>
       <c r="Q395" s="3"/>
       <c r="R395" s="3"/>
       <c r="S395" s="3"/>
@@ -68013,9 +67227,7 @@
       <c r="O396" s="3">
         <v>15428</v>
       </c>
-      <c r="P396" s="3">
-        <v>60</v>
-      </c>
+      <c r="P396" s="3"/>
       <c r="Q396" s="3"/>
       <c r="R396" s="3"/>
       <c r="S396" s="3"/>
@@ -68068,9 +67280,7 @@
       <c r="O397" s="3">
         <v>6736</v>
       </c>
-      <c r="P397" s="3">
-        <v>58</v>
-      </c>
+      <c r="P397" s="3"/>
       <c r="Q397" s="3"/>
       <c r="R397" s="3"/>
       <c r="S397" s="3"/>
@@ -68123,9 +67333,7 @@
       <c r="O398" s="3">
         <v>7489</v>
       </c>
-      <c r="P398" s="3">
-        <v>72</v>
-      </c>
+      <c r="P398" s="3"/>
       <c r="Q398" s="3"/>
       <c r="R398" s="3"/>
       <c r="S398" s="3"/>
@@ -68178,9 +67386,7 @@
       <c r="O399" s="3">
         <v>9881</v>
       </c>
-      <c r="P399" s="3">
-        <v>66</v>
-      </c>
+      <c r="P399" s="3"/>
       <c r="Q399" s="3"/>
       <c r="R399" s="3"/>
       <c r="S399" s="3"/>
@@ -68233,9 +67439,7 @@
       <c r="O400" s="3">
         <v>9136</v>
       </c>
-      <c r="P400" s="3">
-        <v>64</v>
-      </c>
+      <c r="P400" s="3"/>
       <c r="Q400" s="3"/>
       <c r="R400" s="3"/>
       <c r="S400" s="3"/>
@@ -68288,9 +67492,7 @@
       <c r="O401" s="3">
         <v>56988</v>
       </c>
-      <c r="P401" s="3">
-        <v>418</v>
-      </c>
+      <c r="P401" s="3"/>
       <c r="Q401" s="3"/>
       <c r="R401" s="3"/>
       <c r="S401" s="3"/>
@@ -68343,9 +67545,7 @@
       <c r="O402" s="3">
         <v>11344</v>
       </c>
-      <c r="P402" s="3">
-        <v>66</v>
-      </c>
+      <c r="P402" s="3"/>
       <c r="Q402" s="3"/>
       <c r="R402" s="3"/>
       <c r="S402" s="3"/>
@@ -68398,9 +67598,7 @@
       <c r="O403" s="3">
         <v>12500</v>
       </c>
-      <c r="P403" s="3">
-        <v>72</v>
-      </c>
+      <c r="P403" s="3"/>
       <c r="Q403" s="3"/>
       <c r="R403" s="3"/>
       <c r="S403" s="3"/>
@@ -68453,9 +67651,7 @@
       <c r="O404" s="3">
         <v>6109</v>
       </c>
-      <c r="P404" s="3">
-        <v>50</v>
-      </c>
+      <c r="P404" s="3"/>
       <c r="Q404" s="3"/>
       <c r="R404" s="3"/>
       <c r="S404" s="3"/>
@@ -68508,9 +67704,7 @@
       <c r="O405" s="3">
         <v>6631</v>
       </c>
-      <c r="P405" s="3">
-        <v>46</v>
-      </c>
+      <c r="P405" s="3"/>
       <c r="Q405" s="3"/>
       <c r="R405" s="3"/>
       <c r="S405" s="3"/>
@@ -68563,9 +67757,7 @@
       <c r="O406" s="3">
         <v>7945</v>
       </c>
-      <c r="P406" s="3">
-        <v>60</v>
-      </c>
+      <c r="P406" s="3"/>
       <c r="Q406" s="3"/>
       <c r="R406" s="3"/>
       <c r="S406" s="3"/>
@@ -68618,9 +67810,7 @@
       <c r="O407" s="3">
         <v>5221</v>
       </c>
-      <c r="P407" s="3">
-        <v>64</v>
-      </c>
+      <c r="P407" s="3"/>
       <c r="Q407" s="3"/>
       <c r="R407" s="3"/>
       <c r="S407" s="3"/>
@@ -68673,9 +67863,7 @@
       <c r="O408" s="3">
         <v>7238</v>
       </c>
-      <c r="P408" s="3">
-        <v>60</v>
-      </c>
+      <c r="P408" s="3"/>
       <c r="Q408" s="3"/>
       <c r="R408" s="3"/>
       <c r="S408" s="3"/>
@@ -68732,9 +67920,7 @@
       <c r="O409" s="3">
         <v>97009</v>
       </c>
-      <c r="P409" s="3">
-        <v>776</v>
-      </c>
+      <c r="P409" s="3"/>
       <c r="Q409" s="3"/>
       <c r="R409" s="3"/>
       <c r="S409" s="3"/>
@@ -68787,9 +67973,7 @@
       <c r="O410" s="3">
         <v>11510</v>
       </c>
-      <c r="P410" s="3">
-        <v>86</v>
-      </c>
+      <c r="P410" s="3"/>
       <c r="Q410" s="3"/>
       <c r="R410" s="3"/>
       <c r="S410" s="3"/>
@@ -68844,9 +68028,7 @@
       <c r="O411" s="3">
         <v>15285</v>
       </c>
-      <c r="P411" s="3">
-        <v>90</v>
-      </c>
+      <c r="P411" s="3"/>
       <c r="Q411" s="3"/>
       <c r="R411" s="3"/>
       <c r="S411" s="3"/>
@@ -68903,9 +68085,7 @@
       <c r="O412" s="3">
         <v>9703</v>
       </c>
-      <c r="P412" s="3">
-        <v>52</v>
-      </c>
+      <c r="P412" s="3"/>
       <c r="Q412" s="3"/>
       <c r="R412" s="3"/>
       <c r="S412" s="3"/>
@@ -68958,9 +68138,7 @@
       <c r="O413" s="3">
         <v>2890</v>
       </c>
-      <c r="P413" s="3">
-        <v>58</v>
-      </c>
+      <c r="P413" s="3"/>
       <c r="Q413" s="3"/>
       <c r="R413" s="3"/>
       <c r="S413" s="3"/>
@@ -69015,9 +68193,7 @@
       <c r="O414" s="3">
         <v>1296</v>
       </c>
-      <c r="P414" s="3">
-        <v>62</v>
-      </c>
+      <c r="P414" s="3"/>
       <c r="Q414" s="3"/>
       <c r="R414" s="3"/>
       <c r="S414" s="3"/>
@@ -69072,9 +68248,7 @@
       <c r="O415" s="3">
         <v>5117</v>
       </c>
-      <c r="P415" s="3">
-        <v>60</v>
-      </c>
+      <c r="P415" s="3"/>
       <c r="Q415" s="3"/>
       <c r="R415" s="3"/>
       <c r="S415" s="3"/>
@@ -69127,9 +68301,7 @@
       <c r="O416" s="3">
         <v>6052</v>
       </c>
-      <c r="P416" s="3">
-        <v>54</v>
-      </c>
+      <c r="P416" s="3"/>
       <c r="Q416" s="3"/>
       <c r="R416" s="3"/>
       <c r="S416" s="3"/>
@@ -69182,9 +68354,7 @@
       <c r="O417" s="3">
         <v>10739</v>
       </c>
-      <c r="P417" s="3">
-        <v>76</v>
-      </c>
+      <c r="P417" s="3"/>
       <c r="Q417" s="3"/>
       <c r="R417" s="3"/>
       <c r="S417" s="3"/>
@@ -69237,9 +68407,7 @@
       <c r="O418" s="3">
         <v>4646</v>
       </c>
-      <c r="P418" s="3">
-        <v>48</v>
-      </c>
+      <c r="P418" s="3"/>
       <c r="Q418" s="3"/>
       <c r="R418" s="3"/>
       <c r="S418" s="3"/>
@@ -69292,9 +68460,7 @@
       <c r="O419" s="3">
         <v>7346</v>
       </c>
-      <c r="P419" s="3">
-        <v>54</v>
-      </c>
+      <c r="P419" s="3"/>
       <c r="Q419" s="3"/>
       <c r="R419" s="3"/>
       <c r="S419" s="3"/>
@@ -69347,9 +68513,7 @@
       <c r="O420" s="3">
         <v>9749</v>
       </c>
-      <c r="P420" s="3">
-        <v>68</v>
-      </c>
+      <c r="P420" s="3"/>
       <c r="Q420" s="3"/>
       <c r="R420" s="3"/>
       <c r="S420" s="3"/>
@@ -69402,9 +68566,7 @@
       <c r="O421" s="3">
         <v>12676</v>
       </c>
-      <c r="P421" s="3">
-        <v>68</v>
-      </c>
+      <c r="P421" s="3"/>
       <c r="Q421" s="3"/>
       <c r="R421" s="3"/>
       <c r="S421" s="3"/>
